--- a/quantum_crosstalk_analysis.xlsx
+++ b/quantum_crosstalk_analysis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K145"/>
+  <dimension ref="A1:R97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,16 +489,51 @@
           <t>execution_time</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>total_time_us</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>raw_ops_per_sec</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>effective_ops_per_sec</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>quantum_volume</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>info_throughput_bits_per_sec</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>error_corrected_throughput</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>success_rate</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ghz</t>
+          <t>teleportation</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pauli</t>
+          <t>amp_phase</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -513,33 +548,54 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.9811186357445356</v>
+        <v>0.9847443812523748</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9626389233311368</v>
+        <v>0.9697713296262001</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03736107666886368</v>
+        <v>0.0302286703738015</v>
       </c>
       <c r="J2" t="n">
-        <v>0.01367363261718724</v>
+        <v>0.001491019007891309</v>
       </c>
       <c r="K2" t="n">
-        <v>0.009067773818969727</v>
+        <v>0.008090496063232422</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>909090.9090909091</v>
+      </c>
+      <c r="N2" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>17904.44329549772</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.9847443812523748</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ghz</t>
+          <t>teleportation</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pauli</t>
+          <t>amp_phase</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -554,33 +610,54 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.9844404720908092</v>
+        <v>0.9847443812523748</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9691588550535932</v>
+        <v>0.9697713296262001</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03084114494640722</v>
+        <v>0.0302286703738015</v>
       </c>
       <c r="J3" t="n">
-        <v>0.01095321710937474</v>
+        <v>0.001491019007891309</v>
       </c>
       <c r="K3" t="n">
-        <v>0.006349325180053711</v>
+        <v>0.005778074264526367</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M3" t="n">
+        <v>909090.9090909091</v>
+      </c>
+      <c r="N3" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>17904.44329549772</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.9847443812523748</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ghz</t>
+          <t>teleportation</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pauli</t>
+          <t>amp_phase</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -595,33 +672,54 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.9844404720908092</v>
+        <v>0.9847443812523748</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9691588550535932</v>
+        <v>0.9697713296262001</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03084114494640722</v>
+        <v>0.0302286703738015</v>
       </c>
       <c r="J4" t="n">
-        <v>0.01095321710937474</v>
+        <v>0.001491019007891309</v>
       </c>
       <c r="K4" t="n">
-        <v>0.008523941040039062</v>
+        <v>0.007368326187133789</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M4" t="n">
+        <v>909090.9090909091</v>
+      </c>
+      <c r="N4" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>17904.44329549772</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.9847443812523748</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ghz</t>
+          <t>teleportation</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pauli</t>
+          <t>amp_phase</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -636,33 +734,54 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.9881405291094457</v>
+        <v>0.9883244250839212</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9764422665525057</v>
+        <v>0.976821915531914</v>
       </c>
       <c r="I5" t="n">
-        <v>0.02355773344749479</v>
+        <v>0.02317808446808756</v>
       </c>
       <c r="J5" t="n">
-        <v>0.008476890624999758</v>
+        <v>0.001493254262953915</v>
       </c>
       <c r="K5" t="n">
-        <v>0.006946563720703125</v>
+        <v>0.007177114486694336</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>909090.9090909091</v>
+      </c>
+      <c r="N5" t="n">
+        <v>898476.750076292</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>898476.750076292</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>17969.53500152584</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.9883244250839212</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ghz</t>
+          <t>teleportation</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pauli</t>
+          <t>amp_phase</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -677,33 +796,54 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.9811186357445356</v>
+        <v>0.9847443812523748</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9626389233311368</v>
+        <v>0.9697713296262001</v>
       </c>
       <c r="I6" t="n">
-        <v>0.03736107666886368</v>
+        <v>0.0302286703738015</v>
       </c>
       <c r="J6" t="n">
-        <v>0.01367363261718724</v>
+        <v>0.001491019007891309</v>
       </c>
       <c r="K6" t="n">
-        <v>0.005628585815429688</v>
+        <v>0.006023406982421875</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M6" t="n">
+        <v>909090.9090909091</v>
+      </c>
+      <c r="N6" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>17904.44329549772</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.9847443812523748</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ghz</t>
+          <t>teleportation</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pauli</t>
+          <t>amp_phase</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -718,33 +858,54 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.9805037366983415</v>
+        <v>0.9847443812523748</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9614562488533593</v>
+        <v>0.9697713296262001</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0385437511466411</v>
+        <v>0.0302286703738015</v>
       </c>
       <c r="J7" t="n">
-        <v>0.01490342929687486</v>
+        <v>0.001491019007891309</v>
       </c>
       <c r="K7" t="n">
-        <v>0.006422519683837891</v>
+        <v>0.006013631820678711</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M7" t="n">
+        <v>909090.9090909091</v>
+      </c>
+      <c r="N7" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>17904.44329549772</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.9847443812523748</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ghz</t>
+          <t>teleportation</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pauli</t>
+          <t>amp_phase</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -759,33 +920,54 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.9805037366983415</v>
+        <v>0.9847443812523748</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9614562488533593</v>
+        <v>0.9697713296262001</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0385437511466411</v>
+        <v>0.0302286703738015</v>
       </c>
       <c r="J8" t="n">
-        <v>0.01490342929687486</v>
+        <v>0.001491019007891309</v>
       </c>
       <c r="K8" t="n">
-        <v>0.00686335563659668</v>
+        <v>0.006830692291259766</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M8" t="n">
+        <v>909090.9090909091</v>
+      </c>
+      <c r="N8" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>17904.44329549772</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.9847443812523748</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ghz</t>
+          <t>teleportation</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pauli</t>
+          <t>amp_phase</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -800,33 +982,54 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.9841840113415362</v>
+        <v>0.9853663966840008</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9686620218214606</v>
+        <v>0.9710002171728482</v>
       </c>
       <c r="I9" t="n">
-        <v>0.03133797817853989</v>
+        <v>0.02899978282715332</v>
       </c>
       <c r="J9" t="n">
-        <v>0.01244695312499997</v>
+        <v>0.001685371145404471</v>
       </c>
       <c r="K9" t="n">
-        <v>0.007080316543579102</v>
+        <v>0.007349014282226562</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M9" t="n">
+        <v>909090.9090909091</v>
+      </c>
+      <c r="N9" t="n">
+        <v>895787.6333490916</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>895787.6333490916</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>17915.75266698183</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.9853663966840008</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ghz</t>
+          <t>teleportation</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pauli</t>
+          <t>amp_phase</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -841,33 +1044,54 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.9811186357445356</v>
+        <v>0.9847443812523748</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9626389233311368</v>
+        <v>0.9697713296262001</v>
       </c>
       <c r="I10" t="n">
-        <v>0.03736107666886368</v>
+        <v>0.0302286703738015</v>
       </c>
       <c r="J10" t="n">
-        <v>0.01367363261718724</v>
+        <v>0.001491019007891309</v>
       </c>
       <c r="K10" t="n">
-        <v>0.006270408630371094</v>
+        <v>0.005746603012084961</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M10" t="n">
+        <v>909090.9090909091</v>
+      </c>
+      <c r="N10" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>17904.44329549772</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.9847443812523748</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ghz</t>
+          <t>teleportation</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pauli</t>
+          <t>amp_phase</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -882,33 +1106,54 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.9755828172070677</v>
+        <v>0.9847443812523748</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9519151684871248</v>
+        <v>0.9697713296262001</v>
       </c>
       <c r="I11" t="n">
-        <v>0.04808483151287568</v>
+        <v>0.0302286703738015</v>
       </c>
       <c r="J11" t="n">
-        <v>0.01984119453124981</v>
+        <v>0.001491019007891309</v>
       </c>
       <c r="K11" t="n">
-        <v>0.008631467819213867</v>
+        <v>0.005877494812011719</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M11" t="n">
+        <v>909090.9090909091</v>
+      </c>
+      <c r="N11" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>17904.44329549772</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.9847443812523748</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ghz</t>
+          <t>teleportation</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pauli</t>
+          <t>amp_phase</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -923,33 +1168,54 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.9755828172070677</v>
+        <v>0.9847443812523748</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="H12" t="n">
-        <v>0.9519151684871248</v>
+        <v>0.9697713296262001</v>
       </c>
       <c r="I12" t="n">
-        <v>0.04808483151287568</v>
+        <v>0.0302286703738015</v>
       </c>
       <c r="J12" t="n">
-        <v>0.01984119453124981</v>
+        <v>0.001491019007891309</v>
       </c>
       <c r="K12" t="n">
-        <v>0.006844758987426758</v>
+        <v>0.006826877593994141</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M12" t="n">
+        <v>909090.9090909091</v>
+      </c>
+      <c r="N12" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>17904.44329549772</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.9847443812523748</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ghz</t>
+          <t>teleportation</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pauli</t>
+          <t>amp_phase</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -964,33 +1230,54 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.9792383636943686</v>
+        <v>0.9816758026444639</v>
       </c>
       <c r="G13" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="H13" t="n">
-        <v>0.9590247726869856</v>
+        <v>0.9637722115424312</v>
       </c>
       <c r="I13" t="n">
-        <v>0.04097522731301484</v>
+        <v>0.03622778845757035</v>
       </c>
       <c r="J13" t="n">
-        <v>0.01740953124999992</v>
+        <v>0.002623491794544554</v>
       </c>
       <c r="K13" t="n">
-        <v>0.00785064697265625</v>
+        <v>0.007196187973022461</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M13" t="n">
+        <v>909090.9090909091</v>
+      </c>
+      <c r="N13" t="n">
+        <v>892432.5478586035</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" t="n">
+        <v>892432.5478586035</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>17848.65095717207</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0.9816758026444639</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ghz</t>
+          <t>teleportation</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pauli</t>
+          <t>amp_phase</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -1005,33 +1292,54 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.9811186357445356</v>
+        <v>0.9847443812523748</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9626389233311368</v>
+        <v>0.9697713296262001</v>
       </c>
       <c r="I14" t="n">
-        <v>0.03736107666886368</v>
+        <v>0.0302286703738015</v>
       </c>
       <c r="J14" t="n">
-        <v>0.01367363261718724</v>
+        <v>0.001491019007891309</v>
       </c>
       <c r="K14" t="n">
-        <v>0.006030559539794922</v>
+        <v>0.005838871002197266</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M14" t="n">
+        <v>909090.9090909091</v>
+      </c>
+      <c r="N14" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>17904.44329549772</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0.9847443812523748</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ghz</t>
+          <t>teleportation</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pauli</t>
+          <t>amp_phase</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -1046,33 +1354,54 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.9657409779263514</v>
+        <v>0.9847443812523748</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9331235990348452</v>
+        <v>0.9697713296262001</v>
       </c>
       <c r="I15" t="n">
-        <v>0.06687640096515524</v>
+        <v>0.0302286703738015</v>
       </c>
       <c r="J15" t="n">
-        <v>0.02971672499999978</v>
+        <v>0.001491019007891309</v>
       </c>
       <c r="K15" t="n">
-        <v>0.006649494171142578</v>
+        <v>0.005980491638183594</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M15" t="n">
+        <v>909090.9090909091</v>
+      </c>
+      <c r="N15" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>17904.44329549772</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0.9847443812523748</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ghz</t>
+          <t>teleportation</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pauli</t>
+          <t>amp_phase</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -1087,33 +1416,54 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.9657409779263514</v>
+        <v>0.9847443812523748</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9331235990348452</v>
+        <v>0.9697713296262001</v>
       </c>
       <c r="I16" t="n">
-        <v>0.06687640096515524</v>
+        <v>0.0302286703738015</v>
       </c>
       <c r="J16" t="n">
-        <v>0.02971672499999978</v>
+        <v>0.001491019007891309</v>
       </c>
       <c r="K16" t="n">
-        <v>0.00700831413269043</v>
+        <v>0.009557247161865234</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M16" t="n">
+        <v>909090.9090909091</v>
+      </c>
+      <c r="N16" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>17904.44329549772</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0.9847443812523748</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ghz</t>
+          <t>teleportation</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pauli</t>
+          <t>amp_phase</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1128,33 +1478,54 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.9693470680130313</v>
+        <v>0.9743177535226291</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="H17" t="n">
-        <v>0.9400437969277559</v>
+        <v>0.9494788903541576</v>
       </c>
       <c r="I17" t="n">
-        <v>0.05995620307224458</v>
+        <v>0.050521109645844</v>
       </c>
       <c r="J17" t="n">
-        <v>0.02733468749999982</v>
+        <v>0.005001966164392788</v>
       </c>
       <c r="K17" t="n">
-        <v>0.007234096527099609</v>
+        <v>0.01092386245727539</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M17" t="n">
+        <v>909090.9090909091</v>
+      </c>
+      <c r="N17" t="n">
+        <v>885743.4122932991</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" t="n">
+        <v>885743.4122932991</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>17714.86824586598</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0.9743177535226291</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ghz</t>
+          <t>teleportation</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pauli</t>
+          <t>amp_phase</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -1169,33 +1540,54 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.9811186357445356</v>
+        <v>0.9847443812523748</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="H18" t="n">
-        <v>0.9626389233311368</v>
+        <v>0.9697713296262001</v>
       </c>
       <c r="I18" t="n">
-        <v>0.03736107666886368</v>
+        <v>0.0302286703738015</v>
       </c>
       <c r="J18" t="n">
-        <v>0.01367363261718724</v>
+        <v>0.001491019007891309</v>
       </c>
       <c r="K18" t="n">
-        <v>0.006220340728759766</v>
+        <v>0.005772590637207031</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M18" t="n">
+        <v>909090.9090909091</v>
+      </c>
+      <c r="N18" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>17904.44329549772</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0.9847443812523748</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ghz</t>
+          <t>teleportation</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pauli</t>
+          <t>amp_phase</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -1210,33 +1602,54 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.9362154592526106</v>
+        <v>0.9847443812523748</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="H19" t="n">
-        <v>0.8790736209195242</v>
+        <v>0.9697713296262001</v>
       </c>
       <c r="I19" t="n">
-        <v>0.1209263790804762</v>
+        <v>0.0302286703738015</v>
       </c>
       <c r="J19" t="n">
-        <v>0.05934331640624991</v>
+        <v>0.001491019007891309</v>
       </c>
       <c r="K19" t="n">
-        <v>0.007045745849609375</v>
+        <v>0.008903264999389648</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M19" t="n">
+        <v>909090.9090909091</v>
+      </c>
+      <c r="N19" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>17904.44329549772</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.9847443812523748</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ghz</t>
+          <t>teleportation</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pauli</t>
+          <t>amp_phase</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -1251,33 +1664,54 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.9362154592526106</v>
+        <v>0.9847443812523748</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="H20" t="n">
-        <v>0.8790736209195242</v>
+        <v>0.9697713296262001</v>
       </c>
       <c r="I20" t="n">
-        <v>0.1209263790804762</v>
+        <v>0.0302286703738015</v>
       </c>
       <c r="J20" t="n">
-        <v>0.05934331640624991</v>
+        <v>0.001491019007891309</v>
       </c>
       <c r="K20" t="n">
-        <v>0.009430408477783203</v>
+        <v>0.007051467895507812</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M20" t="n">
+        <v>909090.9090909091</v>
+      </c>
+      <c r="N20" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1</v>
+      </c>
+      <c r="P20" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>17904.44329549772</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0.9847443812523748</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ghz</t>
+          <t>teleportation</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pauli</t>
+          <t>amp_phase</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -1292,33 +1726,54 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.9396731800018122</v>
+        <v>0.9524287196749825</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="H21" t="n">
-        <v>0.8854490481011725</v>
+        <v>0.9078810109555877</v>
       </c>
       <c r="I21" t="n">
-        <v>0.1145509518988279</v>
+        <v>0.09211898904441385</v>
       </c>
       <c r="J21" t="n">
-        <v>0.05711015625000006</v>
+        <v>0.01250193637402321</v>
       </c>
       <c r="K21" t="n">
-        <v>0.007477521896362305</v>
+        <v>0.00854182243347168</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M21" t="n">
+        <v>909090.9090909091</v>
+      </c>
+      <c r="N21" t="n">
+        <v>865844.2906136204</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1</v>
+      </c>
+      <c r="P21" t="n">
+        <v>865844.2906136204</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>17316.88581227241</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0.9524287196749825</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ghz</t>
+          <t>teleportation</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pauli</t>
+          <t>amp_phase</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -1333,33 +1788,54 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.9811186357445356</v>
+        <v>0.9847443812523748</v>
       </c>
       <c r="G22" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="H22" t="n">
-        <v>0.9626389233311368</v>
+        <v>0.9697713296262001</v>
       </c>
       <c r="I22" t="n">
-        <v>0.03736107666886368</v>
+        <v>0.0302286703738015</v>
       </c>
       <c r="J22" t="n">
-        <v>0.01367363261718724</v>
+        <v>0.001491019007891309</v>
       </c>
       <c r="K22" t="n">
-        <v>0.006181001663208008</v>
+        <v>0.006157398223876953</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M22" t="n">
+        <v>909090.9090909091</v>
+      </c>
+      <c r="N22" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1</v>
+      </c>
+      <c r="P22" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>17904.44329549772</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0.9847443812523748</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ghz</t>
+          <t>teleportation</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pauli</t>
+          <t>amp_phase</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -1374,33 +1850,54 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.8870062604947576</v>
+        <v>0.9847443812523748</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="H23" t="n">
-        <v>0.796739424865721</v>
+        <v>0.9697713296262001</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2032605751342794</v>
+        <v>0.0302286703738015</v>
       </c>
       <c r="J23" t="n">
-        <v>0.10872096875</v>
+        <v>0.001491019007891309</v>
       </c>
       <c r="K23" t="n">
-        <v>0.006805419921875</v>
+        <v>0.00748443603515625</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M23" t="n">
+        <v>909090.9090909091</v>
+      </c>
+      <c r="N23" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1</v>
+      </c>
+      <c r="P23" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>17904.44329549772</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0.9847443812523748</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ghz</t>
+          <t>teleportation</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pauli</t>
+          <t>amp_phase</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -1415,33 +1912,54 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.8870062604947576</v>
+        <v>0.9847443812523748</v>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="H24" t="n">
-        <v>0.796739424865721</v>
+        <v>0.9697713296262001</v>
       </c>
       <c r="I24" t="n">
-        <v>0.2032605751342794</v>
+        <v>0.0302286703738015</v>
       </c>
       <c r="J24" t="n">
-        <v>0.10872096875</v>
+        <v>0.001491019007891309</v>
       </c>
       <c r="K24" t="n">
-        <v>0.006814241409301758</v>
+        <v>0.008416652679443359</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M24" t="n">
+        <v>909090.9090909091</v>
+      </c>
+      <c r="N24" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1</v>
+      </c>
+      <c r="P24" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>17904.44329549772</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0.9847443812523748</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ghz</t>
+          <t>teleportation</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pauli</t>
+          <t>amp_phase</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -1456,33 +1974,54 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.8902166989205541</v>
+        <v>0.9165640438546411</v>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="H25" t="n">
-        <v>0.8022850512541972</v>
+        <v>0.842697334167229</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1977149487458032</v>
+        <v>0.1573026658327725</v>
       </c>
       <c r="J25" t="n">
-        <v>0.1067359375</v>
+        <v>0.02500188672340754</v>
       </c>
       <c r="K25" t="n">
-        <v>0.007415056228637695</v>
+        <v>0.007499933242797852</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M25" t="n">
+        <v>909090.9090909091</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ghz</t>
+          <t>teleportation</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>zz</t>
+          <t>pauli</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -1497,33 +2036,54 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.9811186357445356</v>
+        <v>0.9847443812523748</v>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="H26" t="n">
-        <v>0.9626389233311368</v>
+        <v>0.9697713296262001</v>
       </c>
       <c r="I26" t="n">
-        <v>0.03736107666886368</v>
+        <v>0.0302286703738015</v>
       </c>
       <c r="J26" t="n">
-        <v>0.01367363261718724</v>
+        <v>0.001491019007891309</v>
       </c>
       <c r="K26" t="n">
-        <v>0.00631403923034668</v>
+        <v>0.005948781967163086</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M26" t="n">
+        <v>909090.9090909091</v>
+      </c>
+      <c r="N26" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1</v>
+      </c>
+      <c r="P26" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>17904.44329549772</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0.9847443812523748</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ghz</t>
+          <t>teleportation</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>zz</t>
+          <t>pauli</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -1538,33 +2098,54 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.9854246558593767</v>
+        <v>0.9847443812523748</v>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="H27" t="n">
-        <v>0.9710941929796577</v>
+        <v>0.9697713296262001</v>
       </c>
       <c r="I27" t="n">
-        <v>0.02890580702034273</v>
+        <v>0.0302286703738015</v>
       </c>
       <c r="J27" t="n">
-        <v>0.009965664062499803</v>
+        <v>0.001491019007891309</v>
       </c>
       <c r="K27" t="n">
-        <v>0.006744146347045898</v>
+        <v>0.008406877517700195</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M27" t="n">
+        <v>909090.9090909091</v>
+      </c>
+      <c r="N27" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1</v>
+      </c>
+      <c r="P27" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>17904.44329549772</v>
+      </c>
+      <c r="R27" t="n">
+        <v>0.9847443812523748</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ghz</t>
+          <t>teleportation</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>zz</t>
+          <t>pauli</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -1579,33 +2160,54 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.9854246558593767</v>
+        <v>0.9847443812523748</v>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="H28" t="n">
-        <v>0.9710941929796577</v>
+        <v>0.9697713296262001</v>
       </c>
       <c r="I28" t="n">
-        <v>0.02890580702034273</v>
+        <v>0.0302286703738015</v>
       </c>
       <c r="J28" t="n">
-        <v>0.009965664062499803</v>
+        <v>0.001491019007891309</v>
       </c>
       <c r="K28" t="n">
-        <v>0.00743865966796875</v>
+        <v>0.007066249847412109</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M28" t="n">
+        <v>909090.9090909091</v>
+      </c>
+      <c r="N28" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1</v>
+      </c>
+      <c r="P28" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>17904.44329549772</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0.9847443812523748</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ghz</t>
+          <t>teleportation</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>zz</t>
+          <t>pauli</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -1620,33 +2222,54 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.9891296580656934</v>
+        <v>0.9890647032778209</v>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="H29" t="n">
-        <v>0.9783971118234189</v>
+        <v>0.978282807960225</v>
       </c>
       <c r="I29" t="n">
-        <v>0.02160288817658151</v>
+        <v>0.02171719203977651</v>
       </c>
       <c r="J29" t="n">
-        <v>0.007484374999999883</v>
+        <v>0.001492510010433691</v>
       </c>
       <c r="K29" t="n">
-        <v>0.007071971893310547</v>
+        <v>0.01549482345581055</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M29" t="n">
+        <v>909090.9090909091</v>
+      </c>
+      <c r="N29" t="n">
+        <v>899149.7302525644</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1</v>
+      </c>
+      <c r="P29" t="n">
+        <v>899149.7302525644</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>17982.99460505129</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0.9890647032778209</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ghz</t>
+          <t>teleportation</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>zz</t>
+          <t>pauli</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -1661,33 +2284,54 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.9811186357445356</v>
+        <v>0.9847443812523748</v>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="H30" t="n">
-        <v>0.9626389233311368</v>
+        <v>0.9697713296262001</v>
       </c>
       <c r="I30" t="n">
-        <v>0.03736107666886368</v>
+        <v>0.0302286703738015</v>
       </c>
       <c r="J30" t="n">
-        <v>0.01367363261718724</v>
+        <v>0.001491019007891309</v>
       </c>
       <c r="K30" t="n">
-        <v>0.006237030029296875</v>
+        <v>0.01507925987243652</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M30" t="n">
+        <v>909090.9090909091</v>
+      </c>
+      <c r="N30" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1</v>
+      </c>
+      <c r="P30" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>17904.44329549772</v>
+      </c>
+      <c r="R30" t="n">
+        <v>0.9847443812523748</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ghz</t>
+          <t>teleportation</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>zz</t>
+          <t>pauli</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -1702,33 +2346,54 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.9854246558593753</v>
+        <v>0.9847443812523748</v>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="H31" t="n">
-        <v>0.9710941929796575</v>
+        <v>0.9697713296262001</v>
       </c>
       <c r="I31" t="n">
-        <v>0.02890580702034296</v>
+        <v>0.0302286703738015</v>
       </c>
       <c r="J31" t="n">
-        <v>0.009965664062499859</v>
+        <v>0.001491019007891309</v>
       </c>
       <c r="K31" t="n">
-        <v>0.007755517959594727</v>
+        <v>0.01240038871765137</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M31" t="n">
+        <v>909090.9090909091</v>
+      </c>
+      <c r="N31" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1</v>
+      </c>
+      <c r="P31" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>17904.44329549772</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0.9847443812523748</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ghz</t>
+          <t>teleportation</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>zz</t>
+          <t>pauli</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -1743,33 +2408,54 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.9854246558593753</v>
+        <v>0.9847443812523748</v>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="H32" t="n">
-        <v>0.9710941929796575</v>
+        <v>0.9697713296262001</v>
       </c>
       <c r="I32" t="n">
-        <v>0.02890580702034296</v>
+        <v>0.0302286703738015</v>
       </c>
       <c r="J32" t="n">
-        <v>0.009965664062499859</v>
+        <v>0.001491019007891309</v>
       </c>
       <c r="K32" t="n">
-        <v>0.00680232048034668</v>
+        <v>0.01201367378234863</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M32" t="n">
+        <v>909090.9090909091</v>
+      </c>
+      <c r="N32" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1</v>
+      </c>
+      <c r="P32" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>17904.44329549772</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0.9847443812523748</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ghz</t>
+          <t>teleportation</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>zz</t>
+          <t>pauli</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -1784,33 +2470,54 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.9891296580656939</v>
+        <v>0.9890647032778229</v>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="H33" t="n">
-        <v>0.9783971118234184</v>
+        <v>0.9782827767244563</v>
       </c>
       <c r="I33" t="n">
-        <v>0.02160288817658207</v>
+        <v>0.02171722327554526</v>
       </c>
       <c r="J33" t="n">
-        <v>0.007484375000000048</v>
+        <v>0.001488534003653966</v>
       </c>
       <c r="K33" t="n">
-        <v>0.007394075393676758</v>
+        <v>0.01760745048522949</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M33" t="n">
+        <v>909090.9090909091</v>
+      </c>
+      <c r="N33" t="n">
+        <v>899149.7302525663</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1</v>
+      </c>
+      <c r="P33" t="n">
+        <v>899149.7302525663</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>17982.99460505132</v>
+      </c>
+      <c r="R33" t="n">
+        <v>0.9890647032778229</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ghz</t>
+          <t>teleportation</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>zz</t>
+          <t>pauli</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -1825,33 +2532,54 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.9811186357445356</v>
+        <v>0.9847443812523748</v>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="H34" t="n">
-        <v>0.9626389233311368</v>
+        <v>0.9697713296262001</v>
       </c>
       <c r="I34" t="n">
-        <v>0.03736107666886368</v>
+        <v>0.0302286703738015</v>
       </c>
       <c r="J34" t="n">
-        <v>0.01367363261718724</v>
+        <v>0.001491019007891309</v>
       </c>
       <c r="K34" t="n">
-        <v>0.006348371505737305</v>
+        <v>0.01538324356079102</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M34" t="n">
+        <v>909090.9090909091</v>
+      </c>
+      <c r="N34" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1</v>
+      </c>
+      <c r="P34" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>17904.44329549772</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0.9847443812523748</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ghz</t>
+          <t>teleportation</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>zz</t>
+          <t>pauli</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1866,33 +2594,54 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.9854246558593753</v>
+        <v>0.9847443812523748</v>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="H35" t="n">
-        <v>0.9710941929796575</v>
+        <v>0.9697713296262001</v>
       </c>
       <c r="I35" t="n">
-        <v>0.02890580702034296</v>
+        <v>0.0302286703738015</v>
       </c>
       <c r="J35" t="n">
-        <v>0.009965664062499859</v>
+        <v>0.001491019007891309</v>
       </c>
       <c r="K35" t="n">
-        <v>0.008762121200561523</v>
+        <v>0.01116347312927246</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M35" t="n">
+        <v>909090.9090909091</v>
+      </c>
+      <c r="N35" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1</v>
+      </c>
+      <c r="P35" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>17904.44329549772</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0.9847443812523748</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ghz</t>
+          <t>teleportation</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>zz</t>
+          <t>pauli</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -1907,33 +2656,54 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.9854246558593753</v>
+        <v>0.9847443812523748</v>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="H36" t="n">
-        <v>0.9710941929796575</v>
+        <v>0.9697713296262001</v>
       </c>
       <c r="I36" t="n">
-        <v>0.02890580702034296</v>
+        <v>0.0302286703738015</v>
       </c>
       <c r="J36" t="n">
-        <v>0.009965664062499859</v>
+        <v>0.001491019007891309</v>
       </c>
       <c r="K36" t="n">
-        <v>0.007369279861450195</v>
+        <v>0.01382541656494141</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M36" t="n">
+        <v>909090.9090909091</v>
+      </c>
+      <c r="N36" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1</v>
+      </c>
+      <c r="P36" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>17904.44329549772</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0.9847443812523748</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ghz</t>
+          <t>teleportation</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>zz</t>
+          <t>pauli</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -1948,33 +2718,54 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.9891296580656939</v>
+        <v>0.9890647032778282</v>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="H37" t="n">
-        <v>0.9783971118234184</v>
+        <v>0.9782827380332698</v>
       </c>
       <c r="I37" t="n">
-        <v>0.02160288817658207</v>
+        <v>0.02171726196673174</v>
       </c>
       <c r="J37" t="n">
-        <v>0.007484375000000048</v>
+        <v>0.001483563995179425</v>
       </c>
       <c r="K37" t="n">
-        <v>0.008736371994018555</v>
+        <v>0.0140068531036377</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M37" t="n">
+        <v>909090.9090909091</v>
+      </c>
+      <c r="N37" t="n">
+        <v>899149.7302525711</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1</v>
+      </c>
+      <c r="P37" t="n">
+        <v>899149.7302525711</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>17982.99460505142</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0.9890647032778282</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ghz</t>
+          <t>teleportation</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>zz</t>
+          <t>pauli</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -1989,33 +2780,54 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.9811186357445356</v>
+        <v>0.9847443812523748</v>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="H38" t="n">
-        <v>0.9626389233311368</v>
+        <v>0.9697713296262001</v>
       </c>
       <c r="I38" t="n">
-        <v>0.03736107666886368</v>
+        <v>0.0302286703738015</v>
       </c>
       <c r="J38" t="n">
-        <v>0.01367363261718724</v>
+        <v>0.001491019007891309</v>
       </c>
       <c r="K38" t="n">
-        <v>0.006238698959350586</v>
+        <v>0.0152900218963623</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M38" t="n">
+        <v>909090.9090909091</v>
+      </c>
+      <c r="N38" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1</v>
+      </c>
+      <c r="P38" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>17904.44329549772</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0.9847443812523748</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ghz</t>
+          <t>teleportation</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>zz</t>
+          <t>pauli</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -2030,33 +2842,54 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.9854246558593767</v>
+        <v>0.9847443812523748</v>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="H39" t="n">
-        <v>0.9710941929796577</v>
+        <v>0.9697713296262001</v>
       </c>
       <c r="I39" t="n">
-        <v>0.02890580702034273</v>
+        <v>0.0302286703738015</v>
       </c>
       <c r="J39" t="n">
-        <v>0.009965664062499803</v>
+        <v>0.001491019007891309</v>
       </c>
       <c r="K39" t="n">
-        <v>0.007737159729003906</v>
+        <v>0.0106654167175293</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M39" t="n">
+        <v>909090.9090909091</v>
+      </c>
+      <c r="N39" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1</v>
+      </c>
+      <c r="P39" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>17904.44329549772</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0.9847443812523748</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ghz</t>
+          <t>teleportation</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>zz</t>
+          <t>pauli</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -2071,33 +2904,54 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.9854246558593767</v>
+        <v>0.9847443812523748</v>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="H40" t="n">
-        <v>0.9710941929796577</v>
+        <v>0.9697713296262001</v>
       </c>
       <c r="I40" t="n">
-        <v>0.02890580702034273</v>
+        <v>0.0302286703738015</v>
       </c>
       <c r="J40" t="n">
-        <v>0.009965664062499803</v>
+        <v>0.001491019007891309</v>
       </c>
       <c r="K40" t="n">
-        <v>0.006773233413696289</v>
+        <v>0.01231241226196289</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M40" t="n">
+        <v>909090.9090909091</v>
+      </c>
+      <c r="N40" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1</v>
+      </c>
+      <c r="P40" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>17904.44329549772</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0.9847443812523748</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ghz</t>
+          <t>teleportation</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>zz</t>
+          <t>pauli</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -2112,33 +2966,54 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.9891296580656934</v>
+        <v>0.9890647032778364</v>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="H41" t="n">
-        <v>0.9783971118234189</v>
+        <v>0.9782826618293083</v>
       </c>
       <c r="I41" t="n">
-        <v>0.02160288817658151</v>
+        <v>0.02171733817069321</v>
       </c>
       <c r="J41" t="n">
-        <v>0.007484374999999883</v>
+        <v>0.001473623978230178</v>
       </c>
       <c r="K41" t="n">
-        <v>0.007254838943481445</v>
+        <v>0.01712560653686523</v>
+      </c>
+      <c r="L41" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M41" t="n">
+        <v>909090.9090909091</v>
+      </c>
+      <c r="N41" t="n">
+        <v>899149.7302525785</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1</v>
+      </c>
+      <c r="P41" t="n">
+        <v>899149.7302525785</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>17982.99460505157</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0.9890647032778364</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ghz</t>
+          <t>teleportation</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>zz</t>
+          <t>pauli</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -2153,33 +3028,54 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.9811186357445356</v>
+        <v>0.9847443812523748</v>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="H42" t="n">
-        <v>0.9626389233311368</v>
+        <v>0.9697713296262001</v>
       </c>
       <c r="I42" t="n">
-        <v>0.03736107666886368</v>
+        <v>0.0302286703738015</v>
       </c>
       <c r="J42" t="n">
-        <v>0.01367363261718724</v>
+        <v>0.001491019007891309</v>
       </c>
       <c r="K42" t="n">
-        <v>0.005867242813110352</v>
+        <v>0.01266336441040039</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M42" t="n">
+        <v>909090.9090909091</v>
+      </c>
+      <c r="N42" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1</v>
+      </c>
+      <c r="P42" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>17904.44329549772</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0.9847443812523748</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ghz</t>
+          <t>teleportation</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>zz</t>
+          <t>pauli</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -2194,33 +3090,54 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.9854246558593753</v>
+        <v>0.9847443812523748</v>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="H43" t="n">
-        <v>0.9710941929796575</v>
+        <v>0.9697713296262001</v>
       </c>
       <c r="I43" t="n">
-        <v>0.02890580702034296</v>
+        <v>0.0302286703738015</v>
       </c>
       <c r="J43" t="n">
-        <v>0.009965664062499859</v>
+        <v>0.001491019007891309</v>
       </c>
       <c r="K43" t="n">
-        <v>0.007200002670288086</v>
+        <v>0.0103914737701416</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M43" t="n">
+        <v>909090.9090909091</v>
+      </c>
+      <c r="N43" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="O43" t="n">
+        <v>1</v>
+      </c>
+      <c r="P43" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>17904.44329549772</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0.9847443812523748</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ghz</t>
+          <t>teleportation</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>zz</t>
+          <t>pauli</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -2235,33 +3152,54 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.9854246558593753</v>
+        <v>0.9847443812523748</v>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="H44" t="n">
-        <v>0.9710941929796575</v>
+        <v>0.9697713296262001</v>
       </c>
       <c r="I44" t="n">
-        <v>0.02890580702034296</v>
+        <v>0.0302286703738015</v>
       </c>
       <c r="J44" t="n">
-        <v>0.009965664062499859</v>
+        <v>0.001491019007891309</v>
       </c>
       <c r="K44" t="n">
-        <v>0.006627082824707031</v>
+        <v>0.01372480392456055</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M44" t="n">
+        <v>909090.9090909091</v>
+      </c>
+      <c r="N44" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1</v>
+      </c>
+      <c r="P44" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>17904.44329549772</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0.9847443812523748</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ghz</t>
+          <t>teleportation</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>zz</t>
+          <t>pauli</t>
         </is>
       </c>
       <c r="C45" t="n">
@@ -2276,33 +3214,54 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.9891296580656939</v>
+        <v>0.9890647032778602</v>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="H45" t="n">
-        <v>0.9783971118234184</v>
+        <v>0.9782824426447169</v>
       </c>
       <c r="I45" t="n">
-        <v>0.02160288817658207</v>
+        <v>0.02171755735528469</v>
       </c>
       <c r="J45" t="n">
-        <v>0.007484375000000048</v>
+        <v>0.001443803927382539</v>
       </c>
       <c r="K45" t="n">
-        <v>0.007271051406860352</v>
+        <v>0.01602578163146973</v>
+      </c>
+      <c r="L45" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M45" t="n">
+        <v>909090.9090909091</v>
+      </c>
+      <c r="N45" t="n">
+        <v>899149.7302526002</v>
+      </c>
+      <c r="O45" t="n">
+        <v>1</v>
+      </c>
+      <c r="P45" t="n">
+        <v>899149.7302526002</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>17982.994605052</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0.9890647032778602</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ghz</t>
+          <t>teleportation</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>zz</t>
+          <t>pauli</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -2317,33 +3276,54 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.9811186357445356</v>
+        <v>0.9847443812523748</v>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="H46" t="n">
-        <v>0.9626389233311368</v>
+        <v>0.9697713296262001</v>
       </c>
       <c r="I46" t="n">
-        <v>0.03736107666886368</v>
+        <v>0.0302286703738015</v>
       </c>
       <c r="J46" t="n">
-        <v>0.01367363261718724</v>
+        <v>0.001491019007891309</v>
       </c>
       <c r="K46" t="n">
-        <v>0.008354902267456055</v>
+        <v>0.01261687278747559</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M46" t="n">
+        <v>909090.9090909091</v>
+      </c>
+      <c r="N46" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1</v>
+      </c>
+      <c r="P46" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>17904.44329549772</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0.9847443812523748</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ghz</t>
+          <t>teleportation</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>zz</t>
+          <t>pauli</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -2358,33 +3338,54 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.9854246558593767</v>
+        <v>0.9847443812523748</v>
       </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="H47" t="n">
-        <v>0.9710941929796577</v>
+        <v>0.9697713296262001</v>
       </c>
       <c r="I47" t="n">
-        <v>0.02890580702034273</v>
+        <v>0.0302286703738015</v>
       </c>
       <c r="J47" t="n">
-        <v>0.009965664062499803</v>
+        <v>0.001491019007891309</v>
       </c>
       <c r="K47" t="n">
-        <v>0.00670313835144043</v>
+        <v>0.01647639274597168</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M47" t="n">
+        <v>909090.9090909091</v>
+      </c>
+      <c r="N47" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="O47" t="n">
+        <v>1</v>
+      </c>
+      <c r="P47" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>17904.44329549772</v>
+      </c>
+      <c r="R47" t="n">
+        <v>0.9847443812523748</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ghz</t>
+          <t>teleportation</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>zz</t>
+          <t>pauli</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -2399,33 +3400,54 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.9854246558593767</v>
+        <v>0.9847443812523748</v>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="H48" t="n">
-        <v>0.9710941929796577</v>
+        <v>0.9697713296262001</v>
       </c>
       <c r="I48" t="n">
-        <v>0.02890580702034273</v>
+        <v>0.0302286703738015</v>
       </c>
       <c r="J48" t="n">
-        <v>0.009965664062499803</v>
+        <v>0.001491019007891309</v>
       </c>
       <c r="K48" t="n">
-        <v>0.006244897842407227</v>
+        <v>0.01295614242553711</v>
+      </c>
+      <c r="L48" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M48" t="n">
+        <v>909090.9090909091</v>
+      </c>
+      <c r="N48" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1</v>
+      </c>
+      <c r="P48" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>17904.44329549772</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0.9847443812523748</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ghz</t>
+          <t>teleportation</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>zz</t>
+          <t>pauli</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -2440,33 +3462,54 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.9891296580656934</v>
+        <v>0.9890647032778951</v>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="H49" t="n">
-        <v>0.9783971118234189</v>
+        <v>0.9782821087613796</v>
       </c>
       <c r="I49" t="n">
-        <v>0.02160288817658151</v>
+        <v>0.021717891238622</v>
       </c>
       <c r="J49" t="n">
-        <v>0.007484374999999883</v>
+        <v>0.001394103842636413</v>
       </c>
       <c r="K49" t="n">
-        <v>0.007166147232055664</v>
+        <v>0.0196232795715332</v>
+      </c>
+      <c r="L49" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M49" t="n">
+        <v>909090.9090909091</v>
+      </c>
+      <c r="N49" t="n">
+        <v>899149.7302526318</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1</v>
+      </c>
+      <c r="P49" t="n">
+        <v>899149.7302526318</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>17982.99460505264</v>
+      </c>
+      <c r="R49" t="n">
+        <v>0.9890647032778951</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>random_circuit</t>
+          <t>teleportation</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pauli</t>
+          <t>depolarizing</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -2481,33 +3524,54 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0.9712730018638178</v>
+        <v>0.9847443812523748</v>
       </c>
       <c r="G50" t="n">
         <v>1.000000000000002</v>
       </c>
       <c r="H50" t="n">
-        <v>0.9434977602164021</v>
+        <v>0.9697713296262001</v>
       </c>
       <c r="I50" t="n">
-        <v>0.05650223978359969</v>
+        <v>0.0302286703738015</v>
       </c>
       <c r="J50" t="n">
-        <v>0.003546586839851407</v>
+        <v>0.001491019007891309</v>
       </c>
       <c r="K50" t="n">
-        <v>0.004361629486083984</v>
+        <v>0.01325106620788574</v>
+      </c>
+      <c r="L50" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M50" t="n">
+        <v>909090.9090909091</v>
+      </c>
+      <c r="N50" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="O50" t="n">
+        <v>1</v>
+      </c>
+      <c r="P50" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>17904.44329549772</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0.9847443812523748</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>random_circuit</t>
+          <t>teleportation</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>pauli</t>
+          <t>depolarizing</t>
         </is>
       </c>
       <c r="C51" t="n">
@@ -2522,33 +3586,54 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>0.9712730018638178</v>
+        <v>0.9847443812523748</v>
       </c>
       <c r="G51" t="n">
         <v>1.000000000000002</v>
       </c>
       <c r="H51" t="n">
-        <v>0.9434977602164021</v>
+        <v>0.9697713296262001</v>
       </c>
       <c r="I51" t="n">
-        <v>0.05650223978359969</v>
+        <v>0.0302286703738015</v>
       </c>
       <c r="J51" t="n">
-        <v>0.003546586839851407</v>
+        <v>0.001491019007891309</v>
       </c>
       <c r="K51" t="n">
-        <v>0.006522655487060547</v>
+        <v>0.01581144332885742</v>
+      </c>
+      <c r="L51" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M51" t="n">
+        <v>909090.9090909091</v>
+      </c>
+      <c r="N51" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="O51" t="n">
+        <v>1</v>
+      </c>
+      <c r="P51" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>17904.44329549772</v>
+      </c>
+      <c r="R51" t="n">
+        <v>0.9847443812523748</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>random_circuit</t>
+          <t>teleportation</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>pauli</t>
+          <t>depolarizing</t>
         </is>
       </c>
       <c r="C52" t="n">
@@ -2563,33 +3648,54 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>0.9712730018638178</v>
+        <v>0.9847443812523748</v>
       </c>
       <c r="G52" t="n">
         <v>1.000000000000002</v>
       </c>
       <c r="H52" t="n">
-        <v>0.9434977602164021</v>
+        <v>0.9697713296262001</v>
       </c>
       <c r="I52" t="n">
-        <v>0.05650223978359969</v>
+        <v>0.0302286703738015</v>
       </c>
       <c r="J52" t="n">
-        <v>0.003546586839851407</v>
+        <v>0.001491019007891309</v>
       </c>
       <c r="K52" t="n">
-        <v>0.007805585861206055</v>
+        <v>0.0170600414276123</v>
+      </c>
+      <c r="L52" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M52" t="n">
+        <v>909090.9090909091</v>
+      </c>
+      <c r="N52" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="O52" t="n">
+        <v>1</v>
+      </c>
+      <c r="P52" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>17904.44329549772</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0.9847443812523748</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>random_circuit</t>
+          <t>teleportation</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>pauli</t>
+          <t>depolarizing</t>
         </is>
       </c>
       <c r="C53" t="n">
@@ -2604,33 +3710,54 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>0.9739483534141499</v>
+        <v>0.9882006390430054</v>
       </c>
       <c r="G53" t="n">
         <v>1.000000000000002</v>
       </c>
       <c r="H53" t="n">
-        <v>0.9486927141455387</v>
+        <v>0.9765771054447066</v>
       </c>
       <c r="I53" t="n">
-        <v>0.05130728585446309</v>
+        <v>0.023422894555295</v>
       </c>
       <c r="J53" t="n">
-        <v>0.002520661342767163</v>
+        <v>0.001493007011281113</v>
       </c>
       <c r="K53" t="n">
-        <v>0.007267475128173828</v>
+        <v>0.01410508155822754</v>
+      </c>
+      <c r="L53" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M53" t="n">
+        <v>909090.9090909091</v>
+      </c>
+      <c r="N53" t="n">
+        <v>898364.217311823</v>
+      </c>
+      <c r="O53" t="n">
+        <v>1</v>
+      </c>
+      <c r="P53" t="n">
+        <v>898364.217311823</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>17967.28434623646</v>
+      </c>
+      <c r="R53" t="n">
+        <v>0.9882006390430054</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>random_circuit</t>
+          <t>teleportation</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>pauli</t>
+          <t>depolarizing</t>
         </is>
       </c>
       <c r="C54" t="n">
@@ -2645,33 +3772,54 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>0.9712730018638178</v>
+        <v>0.9847443812523748</v>
       </c>
       <c r="G54" t="n">
         <v>1.000000000000002</v>
       </c>
       <c r="H54" t="n">
-        <v>0.9434977602164021</v>
+        <v>0.9697713296262001</v>
       </c>
       <c r="I54" t="n">
-        <v>0.05650223978359969</v>
+        <v>0.0302286703738015</v>
       </c>
       <c r="J54" t="n">
-        <v>0.003546586839851407</v>
+        <v>0.001491019007891309</v>
       </c>
       <c r="K54" t="n">
-        <v>0.007221460342407227</v>
+        <v>0.01141047477722168</v>
+      </c>
+      <c r="L54" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M54" t="n">
+        <v>909090.9090909091</v>
+      </c>
+      <c r="N54" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="O54" t="n">
+        <v>1</v>
+      </c>
+      <c r="P54" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>17904.44329549772</v>
+      </c>
+      <c r="R54" t="n">
+        <v>0.9847443812523748</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>random_circuit</t>
+          <t>teleportation</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>pauli</t>
+          <t>depolarizing</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -2686,33 +3834,54 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>0.9712730018638178</v>
+        <v>0.9847443812523748</v>
       </c>
       <c r="G55" t="n">
         <v>1.000000000000002</v>
       </c>
       <c r="H55" t="n">
-        <v>0.9434977602164021</v>
+        <v>0.9697713296262001</v>
       </c>
       <c r="I55" t="n">
-        <v>0.05650223978359969</v>
+        <v>0.0302286703738015</v>
       </c>
       <c r="J55" t="n">
-        <v>0.003546586839851407</v>
+        <v>0.001491019007891309</v>
       </c>
       <c r="K55" t="n">
-        <v>0.006952524185180664</v>
+        <v>0.0114436149597168</v>
+      </c>
+      <c r="L55" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M55" t="n">
+        <v>909090.9090909091</v>
+      </c>
+      <c r="N55" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="O55" t="n">
+        <v>1</v>
+      </c>
+      <c r="P55" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>17904.44329549772</v>
+      </c>
+      <c r="R55" t="n">
+        <v>0.9847443812523748</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>random_circuit</t>
+          <t>teleportation</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>pauli</t>
+          <t>depolarizing</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -2727,33 +3896,54 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>0.9712730018638178</v>
+        <v>0.9847443812523748</v>
       </c>
       <c r="G56" t="n">
         <v>1.000000000000002</v>
       </c>
       <c r="H56" t="n">
-        <v>0.9434977602164021</v>
+        <v>0.9697713296262001</v>
       </c>
       <c r="I56" t="n">
-        <v>0.05650223978359969</v>
+        <v>0.0302286703738015</v>
       </c>
       <c r="J56" t="n">
-        <v>0.003546586839851407</v>
+        <v>0.001491019007891309</v>
       </c>
       <c r="K56" t="n">
-        <v>0.007025718688964844</v>
+        <v>0.02137398719787598</v>
+      </c>
+      <c r="L56" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M56" t="n">
+        <v>909090.9090909091</v>
+      </c>
+      <c r="N56" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="O56" t="n">
+        <v>1</v>
+      </c>
+      <c r="P56" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>17904.44329549772</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0.9847443812523748</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>random_circuit</t>
+          <t>teleportation</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>pauli</t>
+          <t>depolarizing</t>
         </is>
       </c>
       <c r="C57" t="n">
@@ -2768,33 +3958,54 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>0.9700486824659963</v>
+        <v>0.9847443812523748</v>
       </c>
       <c r="G57" t="n">
         <v>1.000000000000002</v>
       </c>
       <c r="H57" t="n">
-        <v>0.9411336139785909</v>
+        <v>0.9697713296262001</v>
       </c>
       <c r="I57" t="n">
-        <v>0.05886638602141092</v>
+        <v>0.0302286703738015</v>
       </c>
       <c r="J57" t="n">
-        <v>0.005637656824412194</v>
+        <v>0.001491019007891309</v>
       </c>
       <c r="K57" t="n">
-        <v>0.007753372192382812</v>
+        <v>0.01772212982177734</v>
+      </c>
+      <c r="L57" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M57" t="n">
+        <v>909090.9090909091</v>
+      </c>
+      <c r="N57" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="O57" t="n">
+        <v>1</v>
+      </c>
+      <c r="P57" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>17904.44329549772</v>
+      </c>
+      <c r="R57" t="n">
+        <v>0.9847443812523748</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>random_circuit</t>
+          <t>teleportation</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>pauli</t>
+          <t>depolarizing</t>
         </is>
       </c>
       <c r="C58" t="n">
@@ -2809,33 +4020,54 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>0.9712730018638178</v>
+        <v>0.9847443812523748</v>
       </c>
       <c r="G58" t="n">
         <v>1.000000000000002</v>
       </c>
       <c r="H58" t="n">
-        <v>0.9434977602164021</v>
+        <v>0.9697713296262001</v>
       </c>
       <c r="I58" t="n">
-        <v>0.05650223978359969</v>
+        <v>0.0302286703738015</v>
       </c>
       <c r="J58" t="n">
-        <v>0.003546586839851407</v>
+        <v>0.001491019007891309</v>
       </c>
       <c r="K58" t="n">
-        <v>0.00649714469909668</v>
+        <v>0.01497077941894531</v>
+      </c>
+      <c r="L58" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M58" t="n">
+        <v>909090.9090909091</v>
+      </c>
+      <c r="N58" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="O58" t="n">
+        <v>1</v>
+      </c>
+      <c r="P58" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>17904.44329549772</v>
+      </c>
+      <c r="R58" t="n">
+        <v>0.9847443812523748</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>random_circuit</t>
+          <t>teleportation</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>pauli</t>
+          <t>depolarizing</t>
         </is>
       </c>
       <c r="C59" t="n">
@@ -2850,33 +4082,54 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>0.9712730018638178</v>
+        <v>0.9847443812523748</v>
       </c>
       <c r="G59" t="n">
         <v>1.000000000000002</v>
       </c>
       <c r="H59" t="n">
-        <v>0.9434977602164021</v>
+        <v>0.9697713296262001</v>
       </c>
       <c r="I59" t="n">
-        <v>0.05650223978359969</v>
+        <v>0.0302286703738015</v>
       </c>
       <c r="J59" t="n">
-        <v>0.003546586839851407</v>
+        <v>0.001491019007891309</v>
       </c>
       <c r="K59" t="n">
-        <v>0.008380413055419922</v>
+        <v>0.01701736450195312</v>
+      </c>
+      <c r="L59" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M59" t="n">
+        <v>909090.9090909091</v>
+      </c>
+      <c r="N59" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="O59" t="n">
+        <v>1</v>
+      </c>
+      <c r="P59" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>17904.44329549772</v>
+      </c>
+      <c r="R59" t="n">
+        <v>0.9847443812523748</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>random_circuit</t>
+          <t>teleportation</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>pauli</t>
+          <t>depolarizing</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -2891,33 +4144,54 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0.9712730018638178</v>
+        <v>0.9847443812523748</v>
       </c>
       <c r="G60" t="n">
         <v>1.000000000000002</v>
       </c>
       <c r="H60" t="n">
-        <v>0.9434977602164021</v>
+        <v>0.9697713296262001</v>
       </c>
       <c r="I60" t="n">
-        <v>0.05650223978359969</v>
+        <v>0.0302286703738015</v>
       </c>
       <c r="J60" t="n">
-        <v>0.003546586839851407</v>
+        <v>0.001491019007891309</v>
       </c>
       <c r="K60" t="n">
-        <v>0.007110118865966797</v>
+        <v>0.02056789398193359</v>
+      </c>
+      <c r="L60" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M60" t="n">
+        <v>909090.9090909091</v>
+      </c>
+      <c r="N60" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="O60" t="n">
+        <v>1</v>
+      </c>
+      <c r="P60" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>17904.44329549772</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0.9847443812523748</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>random_circuit</t>
+          <t>teleportation</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>pauli</t>
+          <t>depolarizing</t>
         </is>
       </c>
       <c r="C61" t="n">
@@ -2932,33 +4206,54 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0.965174093267116</v>
+        <v>0.9804240586789652</v>
       </c>
       <c r="G61" t="n">
         <v>1.000000000000002</v>
       </c>
       <c r="H61" t="n">
-        <v>0.9317701203426126</v>
+        <v>0.9613025075350917</v>
       </c>
       <c r="I61" t="n">
-        <v>0.06822987965738914</v>
+        <v>0.03869749246490983</v>
       </c>
       <c r="J61" t="n">
-        <v>0.01046904096602035</v>
+        <v>0.001488534003653993</v>
       </c>
       <c r="K61" t="n">
-        <v>0.008633852005004883</v>
+        <v>0.02036499977111816</v>
+      </c>
+      <c r="L61" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M61" t="n">
+        <v>909090.9090909091</v>
+      </c>
+      <c r="N61" t="n">
+        <v>891294.5987990593</v>
+      </c>
+      <c r="O61" t="n">
+        <v>1</v>
+      </c>
+      <c r="P61" t="n">
+        <v>891294.5987990593</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>17825.89197598119</v>
+      </c>
+      <c r="R61" t="n">
+        <v>0.9804240586789652</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>random_circuit</t>
+          <t>teleportation</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>pauli</t>
+          <t>depolarizing</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -2973,33 +4268,54 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>0.9712730018638178</v>
+        <v>0.9847443812523748</v>
       </c>
       <c r="G62" t="n">
         <v>1.000000000000002</v>
       </c>
       <c r="H62" t="n">
-        <v>0.9434977602164021</v>
+        <v>0.9697713296262001</v>
       </c>
       <c r="I62" t="n">
-        <v>0.05650223978359969</v>
+        <v>0.0302286703738015</v>
       </c>
       <c r="J62" t="n">
-        <v>0.003546586839851407</v>
+        <v>0.001491019007891309</v>
       </c>
       <c r="K62" t="n">
-        <v>0.006413936614990234</v>
+        <v>0.01641368865966797</v>
+      </c>
+      <c r="L62" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M62" t="n">
+        <v>909090.9090909091</v>
+      </c>
+      <c r="N62" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="O62" t="n">
+        <v>1</v>
+      </c>
+      <c r="P62" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>17904.44329549772</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0.9847443812523748</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>random_circuit</t>
+          <t>teleportation</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>pauli</t>
+          <t>depolarizing</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -3014,33 +4330,54 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>0.9712730018638178</v>
+        <v>0.9847443812523748</v>
       </c>
       <c r="G63" t="n">
         <v>1.000000000000002</v>
       </c>
       <c r="H63" t="n">
-        <v>0.9434977602164021</v>
+        <v>0.9697713296262001</v>
       </c>
       <c r="I63" t="n">
-        <v>0.05650223978359969</v>
+        <v>0.0302286703738015</v>
       </c>
       <c r="J63" t="n">
-        <v>0.003546586839851407</v>
+        <v>0.001491019007891309</v>
       </c>
       <c r="K63" t="n">
-        <v>0.007164716720581055</v>
+        <v>0.02056217193603516</v>
+      </c>
+      <c r="L63" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M63" t="n">
+        <v>909090.9090909091</v>
+      </c>
+      <c r="N63" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="O63" t="n">
+        <v>1</v>
+      </c>
+      <c r="P63" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>17904.44329549772</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0.9847443812523748</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>random_circuit</t>
+          <t>teleportation</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>pauli</t>
+          <t>depolarizing</t>
         </is>
       </c>
       <c r="C64" t="n">
@@ -3055,33 +4392,54 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>0.9712730018638178</v>
+        <v>0.9847443812523748</v>
       </c>
       <c r="G64" t="n">
         <v>1.000000000000002</v>
       </c>
       <c r="H64" t="n">
-        <v>0.9434977602164021</v>
+        <v>0.9697713296262001</v>
       </c>
       <c r="I64" t="n">
-        <v>0.05650223978359969</v>
+        <v>0.0302286703738015</v>
       </c>
       <c r="J64" t="n">
-        <v>0.003546586839851407</v>
+        <v>0.001491019007891309</v>
       </c>
       <c r="K64" t="n">
-        <v>0.00709986686706543</v>
+        <v>0.01213240623474121</v>
+      </c>
+      <c r="L64" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M64" t="n">
+        <v>909090.9090909091</v>
+      </c>
+      <c r="N64" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="O64" t="n">
+        <v>1</v>
+      </c>
+      <c r="P64" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>17904.44329549772</v>
+      </c>
+      <c r="R64" t="n">
+        <v>0.9847443812523748</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>random_circuit</t>
+          <t>teleportation</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>pauli</t>
+          <t>depolarizing</t>
         </is>
       </c>
       <c r="C65" t="n">
@@ -3096,33 +4454,54 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>0.9554249144144193</v>
+        <v>0.9717834131409431</v>
       </c>
       <c r="G65" t="n">
         <v>1.000000000000002</v>
       </c>
       <c r="H65" t="n">
-        <v>0.9133277383130136</v>
+        <v>0.9444928556262926</v>
       </c>
       <c r="I65" t="n">
-        <v>0.08667226168698816</v>
+        <v>0.05550714437370896</v>
       </c>
       <c r="J65" t="n">
-        <v>0.02043908093270692</v>
+        <v>0.001483563995179425</v>
       </c>
       <c r="K65" t="n">
-        <v>0.007802724838256836</v>
+        <v>0.01881027221679688</v>
+      </c>
+      <c r="L65" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M65" t="n">
+        <v>909090.9090909091</v>
+      </c>
+      <c r="N65" t="n">
+        <v>883439.4664917664</v>
+      </c>
+      <c r="O65" t="n">
+        <v>1</v>
+      </c>
+      <c r="P65" t="n">
+        <v>883439.4664917664</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>17668.78932983533</v>
+      </c>
+      <c r="R65" t="n">
+        <v>0.9717834131409431</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>random_circuit</t>
+          <t>teleportation</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>pauli</t>
+          <t>depolarizing</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -3137,33 +4516,54 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>0.9712730018638178</v>
+        <v>0.9847443812523748</v>
       </c>
       <c r="G66" t="n">
         <v>1.000000000000002</v>
       </c>
       <c r="H66" t="n">
-        <v>0.9434977602164021</v>
+        <v>0.9697713296262001</v>
       </c>
       <c r="I66" t="n">
-        <v>0.05650223978359969</v>
+        <v>0.0302286703738015</v>
       </c>
       <c r="J66" t="n">
-        <v>0.003546586839851407</v>
+        <v>0.001491019007891309</v>
       </c>
       <c r="K66" t="n">
-        <v>0.006165027618408203</v>
+        <v>0.01526403427124023</v>
+      </c>
+      <c r="L66" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M66" t="n">
+        <v>909090.9090909091</v>
+      </c>
+      <c r="N66" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="O66" t="n">
+        <v>1</v>
+      </c>
+      <c r="P66" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>17904.44329549772</v>
+      </c>
+      <c r="R66" t="n">
+        <v>0.9847443812523748</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>random_circuit</t>
+          <t>teleportation</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>pauli</t>
+          <t>depolarizing</t>
         </is>
       </c>
       <c r="C67" t="n">
@@ -3178,33 +4578,54 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>0.9712730018638178</v>
+        <v>0.9847443812523748</v>
       </c>
       <c r="G67" t="n">
         <v>1.000000000000002</v>
       </c>
       <c r="H67" t="n">
-        <v>0.9434977602164021</v>
+        <v>0.9697713296262001</v>
       </c>
       <c r="I67" t="n">
-        <v>0.05650223978359969</v>
+        <v>0.0302286703738015</v>
       </c>
       <c r="J67" t="n">
-        <v>0.003546586839851407</v>
+        <v>0.001491019007891309</v>
       </c>
       <c r="K67" t="n">
-        <v>0.008496999740600586</v>
+        <v>0.01329421997070312</v>
+      </c>
+      <c r="L67" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M67" t="n">
+        <v>909090.9090909091</v>
+      </c>
+      <c r="N67" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="O67" t="n">
+        <v>1</v>
+      </c>
+      <c r="P67" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>17904.44329549772</v>
+      </c>
+      <c r="R67" t="n">
+        <v>0.9847443812523748</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>random_circuit</t>
+          <t>teleportation</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>pauli</t>
+          <t>depolarizing</t>
         </is>
       </c>
       <c r="C68" t="n">
@@ -3219,33 +4640,54 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>0.9712730018638178</v>
+        <v>0.9847443812523748</v>
       </c>
       <c r="G68" t="n">
         <v>1.000000000000002</v>
       </c>
       <c r="H68" t="n">
-        <v>0.9434977602164021</v>
+        <v>0.9697713296262001</v>
       </c>
       <c r="I68" t="n">
-        <v>0.05650223978359969</v>
+        <v>0.0302286703738015</v>
       </c>
       <c r="J68" t="n">
-        <v>0.003546586839851407</v>
+        <v>0.001491019007891309</v>
       </c>
       <c r="K68" t="n">
-        <v>0.006769180297851562</v>
+        <v>0.0167994499206543</v>
+      </c>
+      <c r="L68" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M68" t="n">
+        <v>909090.9090909091</v>
+      </c>
+      <c r="N68" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="O68" t="n">
+        <v>1</v>
+      </c>
+      <c r="P68" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>17904.44329549772</v>
+      </c>
+      <c r="R68" t="n">
+        <v>0.9847443812523748</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>random_circuit</t>
+          <t>teleportation</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>pauli</t>
+          <t>depolarizing</t>
         </is>
       </c>
       <c r="C69" t="n">
@@ -3260,33 +4702,54 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>0.9261773767180658</v>
+        <v>0.9458614752886007</v>
       </c>
       <c r="G69" t="n">
         <v>1.000000000000002</v>
       </c>
       <c r="H69" t="n">
-        <v>0.8602774341630679</v>
+        <v>0.8950878380872334</v>
       </c>
       <c r="I69" t="n">
-        <v>0.1397225658369339</v>
+        <v>0.1049121619127682</v>
       </c>
       <c r="J69" t="n">
-        <v>0.05034920083276705</v>
+        <v>0.001468653969755568</v>
       </c>
       <c r="K69" t="n">
-        <v>0.007246255874633789</v>
+        <v>0.01825094223022461</v>
+      </c>
+      <c r="L69" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M69" t="n">
+        <v>909090.9090909091</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0</v>
+      </c>
+      <c r="O69" t="n">
+        <v>1</v>
+      </c>
+      <c r="P69" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>0</v>
+      </c>
+      <c r="R69" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>random_circuit</t>
+          <t>teleportation</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>pauli</t>
+          <t>depolarizing</t>
         </is>
       </c>
       <c r="C70" t="n">
@@ -3301,33 +4764,54 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>0.9712730018638178</v>
+        <v>0.9847443812523748</v>
       </c>
       <c r="G70" t="n">
         <v>1.000000000000002</v>
       </c>
       <c r="H70" t="n">
-        <v>0.9434977602164021</v>
+        <v>0.9697713296262001</v>
       </c>
       <c r="I70" t="n">
-        <v>0.05650223978359969</v>
+        <v>0.0302286703738015</v>
       </c>
       <c r="J70" t="n">
-        <v>0.003546586839851407</v>
+        <v>0.001491019007891309</v>
       </c>
       <c r="K70" t="n">
-        <v>0.006365060806274414</v>
+        <v>0.01360535621643066</v>
+      </c>
+      <c r="L70" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M70" t="n">
+        <v>909090.9090909091</v>
+      </c>
+      <c r="N70" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="O70" t="n">
+        <v>1</v>
+      </c>
+      <c r="P70" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>17904.44329549772</v>
+      </c>
+      <c r="R70" t="n">
+        <v>0.9847443812523748</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>random_circuit</t>
+          <t>teleportation</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>pauli</t>
+          <t>depolarizing</t>
         </is>
       </c>
       <c r="C71" t="n">
@@ -3342,33 +4826,54 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>0.9712730018638178</v>
+        <v>0.9847443812523748</v>
       </c>
       <c r="G71" t="n">
         <v>1.000000000000002</v>
       </c>
       <c r="H71" t="n">
-        <v>0.9434977602164021</v>
+        <v>0.9697713296262001</v>
       </c>
       <c r="I71" t="n">
-        <v>0.05650223978359969</v>
+        <v>0.0302286703738015</v>
       </c>
       <c r="J71" t="n">
-        <v>0.003546586839851407</v>
+        <v>0.001491019007891309</v>
       </c>
       <c r="K71" t="n">
-        <v>0.006978988647460938</v>
+        <v>0.01163935661315918</v>
+      </c>
+      <c r="L71" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M71" t="n">
+        <v>909090.9090909091</v>
+      </c>
+      <c r="N71" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="O71" t="n">
+        <v>1</v>
+      </c>
+      <c r="P71" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>17904.44329549772</v>
+      </c>
+      <c r="R71" t="n">
+        <v>0.9847443812523748</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>random_circuit</t>
+          <t>teleportation</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>pauli</t>
+          <t>depolarizing</t>
         </is>
       </c>
       <c r="C72" t="n">
@@ -3383,33 +4888,54 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>0.9712730018638178</v>
+        <v>0.9847443812523748</v>
       </c>
       <c r="G72" t="n">
         <v>1.000000000000002</v>
       </c>
       <c r="H72" t="n">
-        <v>0.9434977602164021</v>
+        <v>0.9697713296262001</v>
       </c>
       <c r="I72" t="n">
-        <v>0.05650223978359969</v>
+        <v>0.0302286703738015</v>
       </c>
       <c r="J72" t="n">
-        <v>0.003546586839851407</v>
+        <v>0.001491019007891309</v>
       </c>
       <c r="K72" t="n">
-        <v>0.007397651672363281</v>
+        <v>0.02435183525085449</v>
+      </c>
+      <c r="L72" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M72" t="n">
+        <v>909090.9090909091</v>
+      </c>
+      <c r="N72" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="O72" t="n">
+        <v>1</v>
+      </c>
+      <c r="P72" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>17904.44329549772</v>
+      </c>
+      <c r="R72" t="n">
+        <v>0.9847443812523748</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>random_circuit</t>
+          <t>teleportation</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>pauli</t>
+          <t>depolarizing</t>
         </is>
       </c>
       <c r="C73" t="n">
@@ -3424,28 +4950,49 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>0.8774314793033966</v>
+        <v>0.902658243881022</v>
       </c>
       <c r="G73" t="n">
         <v>1.000000000000002</v>
       </c>
       <c r="H73" t="n">
-        <v>0.7794497337093347</v>
+        <v>0.816159269479928</v>
       </c>
       <c r="I73" t="n">
-        <v>0.2205502662906671</v>
+        <v>0.1838407305200735</v>
       </c>
       <c r="J73" t="n">
-        <v>0.1001994006662003</v>
+        <v>0.001443803927382539</v>
       </c>
       <c r="K73" t="n">
-        <v>0.00480961799621582</v>
+        <v>0.02595019340515137</v>
+      </c>
+      <c r="L73" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M73" t="n">
+        <v>909090.9090909091</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" t="n">
+        <v>1</v>
+      </c>
+      <c r="P73" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>0</v>
+      </c>
+      <c r="R73" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>random_circuit</t>
+          <t>teleportation</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -3465,28 +5012,49 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>0.9712730018638178</v>
+        <v>0.9847443812523748</v>
       </c>
       <c r="G74" t="n">
         <v>1.000000000000002</v>
       </c>
       <c r="H74" t="n">
-        <v>0.9434977602164021</v>
+        <v>0.9697713296262001</v>
       </c>
       <c r="I74" t="n">
-        <v>0.05650223978359969</v>
+        <v>0.0302286703738015</v>
       </c>
       <c r="J74" t="n">
-        <v>0.003546586839851407</v>
+        <v>0.001491019007891309</v>
       </c>
       <c r="K74" t="n">
-        <v>0.005978584289550781</v>
+        <v>0.01234745979309082</v>
+      </c>
+      <c r="L74" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M74" t="n">
+        <v>909090.9090909091</v>
+      </c>
+      <c r="N74" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="O74" t="n">
+        <v>1</v>
+      </c>
+      <c r="P74" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>17904.44329549772</v>
+      </c>
+      <c r="R74" t="n">
+        <v>0.9847443812523748</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>random_circuit</t>
+          <t>teleportation</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -3506,28 +5074,49 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>0.9712730018638178</v>
+        <v>0.9847443812523748</v>
       </c>
       <c r="G75" t="n">
         <v>1.000000000000002</v>
       </c>
       <c r="H75" t="n">
-        <v>0.9434977602164021</v>
+        <v>0.9697713296262001</v>
       </c>
       <c r="I75" t="n">
-        <v>0.05650223978359969</v>
+        <v>0.0302286703738015</v>
       </c>
       <c r="J75" t="n">
-        <v>0.003546586839851407</v>
+        <v>0.001491019007891309</v>
       </c>
       <c r="K75" t="n">
-        <v>0.007279157638549805</v>
+        <v>0.01056885719299316</v>
+      </c>
+      <c r="L75" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M75" t="n">
+        <v>909090.9090909091</v>
+      </c>
+      <c r="N75" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="O75" t="n">
+        <v>1</v>
+      </c>
+      <c r="P75" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>17904.44329549772</v>
+      </c>
+      <c r="R75" t="n">
+        <v>0.9847443812523748</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>random_circuit</t>
+          <t>teleportation</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -3547,28 +5136,49 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>0.9712730018638178</v>
+        <v>0.9847443812523748</v>
       </c>
       <c r="G76" t="n">
         <v>1.000000000000002</v>
       </c>
       <c r="H76" t="n">
-        <v>0.9434977602164021</v>
+        <v>0.9697713296262001</v>
       </c>
       <c r="I76" t="n">
-        <v>0.05650223978359969</v>
+        <v>0.0302286703738015</v>
       </c>
       <c r="J76" t="n">
-        <v>0.003546586839851407</v>
+        <v>0.001491019007891309</v>
       </c>
       <c r="K76" t="n">
-        <v>0.007161378860473633</v>
+        <v>0.01858687400817871</v>
+      </c>
+      <c r="L76" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M76" t="n">
+        <v>909090.9090909091</v>
+      </c>
+      <c r="N76" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="O76" t="n">
+        <v>1</v>
+      </c>
+      <c r="P76" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>17904.44329549772</v>
+      </c>
+      <c r="R76" t="n">
+        <v>0.9847443812523748</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>random_circuit</t>
+          <t>teleportation</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -3588,28 +5198,49 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.9749232706070282</v>
+        <v>0.9890640952617367</v>
       </c>
       <c r="G77" t="n">
         <v>1.000000000000002</v>
       </c>
       <c r="H77" t="n">
-        <v>0.9505919760286878</v>
+        <v>0.9782828158084473</v>
       </c>
       <c r="I77" t="n">
-        <v>0.04940802397131394</v>
+        <v>0.02171718419155422</v>
       </c>
       <c r="J77" t="n">
-        <v>0.001836711011377638</v>
+        <v>0.00149350401212861</v>
       </c>
       <c r="K77" t="n">
-        <v>0.007550239562988281</v>
+        <v>0.01736330986022949</v>
+      </c>
+      <c r="L77" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M77" t="n">
+        <v>909090.9090909091</v>
+      </c>
+      <c r="N77" t="n">
+        <v>899149.1775106697</v>
+      </c>
+      <c r="O77" t="n">
+        <v>1</v>
+      </c>
+      <c r="P77" t="n">
+        <v>899149.1775106697</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>17982.98355021339</v>
+      </c>
+      <c r="R77" t="n">
+        <v>0.9890640952617367</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>random_circuit</t>
+          <t>teleportation</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -3629,28 +5260,49 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>0.9712730018638178</v>
+        <v>0.9847443812523748</v>
       </c>
       <c r="G78" t="n">
         <v>1.000000000000002</v>
       </c>
       <c r="H78" t="n">
-        <v>0.9434977602164021</v>
+        <v>0.9697713296262001</v>
       </c>
       <c r="I78" t="n">
-        <v>0.05650223978359969</v>
+        <v>0.0302286703738015</v>
       </c>
       <c r="J78" t="n">
-        <v>0.003546586839851407</v>
+        <v>0.001491019007891309</v>
       </c>
       <c r="K78" t="n">
-        <v>0.006133556365966797</v>
+        <v>0.01497626304626465</v>
+      </c>
+      <c r="L78" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M78" t="n">
+        <v>909090.9090909091</v>
+      </c>
+      <c r="N78" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="O78" t="n">
+        <v>1</v>
+      </c>
+      <c r="P78" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>17904.44329549772</v>
+      </c>
+      <c r="R78" t="n">
+        <v>0.9847443812523748</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>random_circuit</t>
+          <t>teleportation</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -3670,28 +5322,49 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>0.9712730018638178</v>
+        <v>0.9847443812523748</v>
       </c>
       <c r="G79" t="n">
         <v>1.000000000000002</v>
       </c>
       <c r="H79" t="n">
-        <v>0.9434977602164021</v>
+        <v>0.9697713296262001</v>
       </c>
       <c r="I79" t="n">
-        <v>0.05650223978359969</v>
+        <v>0.0302286703738015</v>
       </c>
       <c r="J79" t="n">
-        <v>0.003546586839851407</v>
+        <v>0.001491019007891309</v>
       </c>
       <c r="K79" t="n">
-        <v>0.007051944732666016</v>
+        <v>0.007132530212402344</v>
+      </c>
+      <c r="L79" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M79" t="n">
+        <v>909090.9090909091</v>
+      </c>
+      <c r="N79" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="O79" t="n">
+        <v>1</v>
+      </c>
+      <c r="P79" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>17904.44329549772</v>
+      </c>
+      <c r="R79" t="n">
+        <v>0.9847443812523748</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>random_circuit</t>
+          <t>teleportation</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -3711,28 +5384,49 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.9712730018638178</v>
+        <v>0.9847443812523748</v>
       </c>
       <c r="G80" t="n">
         <v>1.000000000000002</v>
       </c>
       <c r="H80" t="n">
-        <v>0.9434977602164021</v>
+        <v>0.9697713296262001</v>
       </c>
       <c r="I80" t="n">
-        <v>0.05650223978359969</v>
+        <v>0.0302286703738015</v>
       </c>
       <c r="J80" t="n">
-        <v>0.003546586839851407</v>
+        <v>0.001491019007891309</v>
       </c>
       <c r="K80" t="n">
-        <v>0.006711006164550781</v>
+        <v>0.0138247013092041</v>
+      </c>
+      <c r="L80" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M80" t="n">
+        <v>909090.9090909091</v>
+      </c>
+      <c r="N80" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="O80" t="n">
+        <v>1</v>
+      </c>
+      <c r="P80" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>17904.44329549772</v>
+      </c>
+      <c r="R80" t="n">
+        <v>0.9847443812523748</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>random_circuit</t>
+          <t>teleportation</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -3752,28 +5446,49 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.9749232706070291</v>
+        <v>0.9890495029507704</v>
       </c>
       <c r="G81" t="n">
         <v>1.000000000000002</v>
       </c>
       <c r="H81" t="n">
-        <v>0.9505919760286876</v>
+        <v>0.978282815808447</v>
       </c>
       <c r="I81" t="n">
-        <v>0.04940802397131416</v>
+        <v>0.02171718419155455</v>
       </c>
       <c r="J81" t="n">
-        <v>0.001836711011377652</v>
+        <v>0.001493504012128596</v>
       </c>
       <c r="K81" t="n">
-        <v>0.007058620452880859</v>
+        <v>0.01997685432434082</v>
+      </c>
+      <c r="L81" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M81" t="n">
+        <v>909090.9090909091</v>
+      </c>
+      <c r="N81" t="n">
+        <v>899135.9117734276</v>
+      </c>
+      <c r="O81" t="n">
+        <v>1</v>
+      </c>
+      <c r="P81" t="n">
+        <v>899135.9117734276</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>17982.71823546855</v>
+      </c>
+      <c r="R81" t="n">
+        <v>0.9890495029507704</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>random_circuit</t>
+          <t>teleportation</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -3793,28 +5508,49 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>0.9712730018638178</v>
+        <v>0.9847443812523748</v>
       </c>
       <c r="G82" t="n">
         <v>1.000000000000002</v>
       </c>
       <c r="H82" t="n">
-        <v>0.9434977602164021</v>
+        <v>0.9697713296262001</v>
       </c>
       <c r="I82" t="n">
-        <v>0.05650223978359969</v>
+        <v>0.0302286703738015</v>
       </c>
       <c r="J82" t="n">
-        <v>0.003546586839851407</v>
+        <v>0.001491019007891309</v>
       </c>
       <c r="K82" t="n">
-        <v>0.005939722061157227</v>
+        <v>0.01491189002990723</v>
+      </c>
+      <c r="L82" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M82" t="n">
+        <v>909090.9090909091</v>
+      </c>
+      <c r="N82" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="O82" t="n">
+        <v>1</v>
+      </c>
+      <c r="P82" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>17904.44329549772</v>
+      </c>
+      <c r="R82" t="n">
+        <v>0.9847443812523748</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>random_circuit</t>
+          <t>teleportation</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -3834,28 +5570,49 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.9712730018638178</v>
+        <v>0.9847443812523748</v>
       </c>
       <c r="G83" t="n">
         <v>1.000000000000002</v>
       </c>
       <c r="H83" t="n">
-        <v>0.9434977602164021</v>
+        <v>0.9697713296262001</v>
       </c>
       <c r="I83" t="n">
-        <v>0.05650223978359969</v>
+        <v>0.0302286703738015</v>
       </c>
       <c r="J83" t="n">
-        <v>0.003546586839851407</v>
+        <v>0.001491019007891309</v>
       </c>
       <c r="K83" t="n">
-        <v>0.006681919097900391</v>
+        <v>0.01273036003112793</v>
+      </c>
+      <c r="L83" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M83" t="n">
+        <v>909090.9090909091</v>
+      </c>
+      <c r="N83" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="O83" t="n">
+        <v>1</v>
+      </c>
+      <c r="P83" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>17904.44329549772</v>
+      </c>
+      <c r="R83" t="n">
+        <v>0.9847443812523748</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>random_circuit</t>
+          <t>teleportation</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -3875,28 +5632,49 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.9712730018638178</v>
+        <v>0.9847443812523748</v>
       </c>
       <c r="G84" t="n">
         <v>1.000000000000002</v>
       </c>
       <c r="H84" t="n">
-        <v>0.9434977602164021</v>
+        <v>0.9697713296262001</v>
       </c>
       <c r="I84" t="n">
-        <v>0.05650223978359969</v>
+        <v>0.0302286703738015</v>
       </c>
       <c r="J84" t="n">
-        <v>0.003546586839851407</v>
+        <v>0.001491019007891309</v>
       </c>
       <c r="K84" t="n">
-        <v>0.007040262222290039</v>
+        <v>0.01301407814025879</v>
+      </c>
+      <c r="L84" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M84" t="n">
+        <v>909090.9090909091</v>
+      </c>
+      <c r="N84" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="O84" t="n">
+        <v>1</v>
+      </c>
+      <c r="P84" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>17904.44329549772</v>
+      </c>
+      <c r="R84" t="n">
+        <v>0.9847443812523748</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>random_circuit</t>
+          <t>teleportation</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -3916,28 +5694,49 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>0.9749232706070291</v>
+        <v>0.9890039029072537</v>
       </c>
       <c r="G85" t="n">
         <v>1.000000000000002</v>
       </c>
       <c r="H85" t="n">
-        <v>0.9505919760286876</v>
+        <v>0.9782828158084469</v>
       </c>
       <c r="I85" t="n">
-        <v>0.04940802397131416</v>
+        <v>0.02171718419155466</v>
       </c>
       <c r="J85" t="n">
-        <v>0.001836711011377652</v>
+        <v>0.001493504012128596</v>
       </c>
       <c r="K85" t="n">
-        <v>0.007548093795776367</v>
+        <v>0.01519608497619629</v>
+      </c>
+      <c r="L85" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M85" t="n">
+        <v>909090.9090909091</v>
+      </c>
+      <c r="N85" t="n">
+        <v>899094.4571884124</v>
+      </c>
+      <c r="O85" t="n">
+        <v>1</v>
+      </c>
+      <c r="P85" t="n">
+        <v>899094.4571884124</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>17981.88914376825</v>
+      </c>
+      <c r="R85" t="n">
+        <v>0.9890039029072537</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>random_circuit</t>
+          <t>teleportation</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -3957,28 +5756,49 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>0.9712730018638178</v>
+        <v>0.9847443812523748</v>
       </c>
       <c r="G86" t="n">
         <v>1.000000000000002</v>
       </c>
       <c r="H86" t="n">
-        <v>0.9434977602164021</v>
+        <v>0.9697713296262001</v>
       </c>
       <c r="I86" t="n">
-        <v>0.05650223978359969</v>
+        <v>0.0302286703738015</v>
       </c>
       <c r="J86" t="n">
-        <v>0.003546586839851407</v>
+        <v>0.001491019007891309</v>
       </c>
       <c r="K86" t="n">
-        <v>0.006534814834594727</v>
+        <v>0.01044678688049316</v>
+      </c>
+      <c r="L86" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M86" t="n">
+        <v>909090.9090909091</v>
+      </c>
+      <c r="N86" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="O86" t="n">
+        <v>1</v>
+      </c>
+      <c r="P86" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>17904.44329549772</v>
+      </c>
+      <c r="R86" t="n">
+        <v>0.9847443812523748</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>random_circuit</t>
+          <t>teleportation</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -3998,28 +5818,49 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.9712730018638178</v>
+        <v>0.9847443812523748</v>
       </c>
       <c r="G87" t="n">
         <v>1.000000000000002</v>
       </c>
       <c r="H87" t="n">
-        <v>0.9434977602164021</v>
+        <v>0.9697713296262001</v>
       </c>
       <c r="I87" t="n">
-        <v>0.05650223978359969</v>
+        <v>0.0302286703738015</v>
       </c>
       <c r="J87" t="n">
-        <v>0.003546586839851407</v>
+        <v>0.001491019007891309</v>
       </c>
       <c r="K87" t="n">
-        <v>0.006736278533935547</v>
+        <v>0.01418089866638184</v>
+      </c>
+      <c r="L87" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M87" t="n">
+        <v>909090.9090909091</v>
+      </c>
+      <c r="N87" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="O87" t="n">
+        <v>1</v>
+      </c>
+      <c r="P87" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>17904.44329549772</v>
+      </c>
+      <c r="R87" t="n">
+        <v>0.9847443812523748</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>random_circuit</t>
+          <t>teleportation</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -4039,28 +5880,49 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>0.9712730018638178</v>
+        <v>0.9847443812523748</v>
       </c>
       <c r="G88" t="n">
         <v>1.000000000000002</v>
       </c>
       <c r="H88" t="n">
-        <v>0.9434977602164021</v>
+        <v>0.9697713296262001</v>
       </c>
       <c r="I88" t="n">
-        <v>0.05650223978359969</v>
+        <v>0.0302286703738015</v>
       </c>
       <c r="J88" t="n">
-        <v>0.003546586839851407</v>
+        <v>0.001491019007891309</v>
       </c>
       <c r="K88" t="n">
-        <v>0.006508111953735352</v>
+        <v>0.0129234790802002</v>
+      </c>
+      <c r="L88" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M88" t="n">
+        <v>909090.9090909091</v>
+      </c>
+      <c r="N88" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="O88" t="n">
+        <v>1</v>
+      </c>
+      <c r="P88" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>17904.44329549772</v>
+      </c>
+      <c r="R88" t="n">
+        <v>0.9847443812523748</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>random_circuit</t>
+          <t>teleportation</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -4080,28 +5942,49 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>0.9749232706070282</v>
+        <v>0.9888215167971389</v>
       </c>
       <c r="G89" t="n">
         <v>1.000000000000002</v>
       </c>
       <c r="H89" t="n">
-        <v>0.9505919760286878</v>
+        <v>0.9782828158084472</v>
       </c>
       <c r="I89" t="n">
-        <v>0.04940802397131394</v>
+        <v>0.02171718419155433</v>
       </c>
       <c r="J89" t="n">
-        <v>0.001836711011377638</v>
+        <v>0.00149350401212861</v>
       </c>
       <c r="K89" t="n">
-        <v>0.008001565933227539</v>
+        <v>0.01511693000793457</v>
+      </c>
+      <c r="L89" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M89" t="n">
+        <v>909090.9090909091</v>
+      </c>
+      <c r="N89" t="n">
+        <v>898928.6516337626</v>
+      </c>
+      <c r="O89" t="n">
+        <v>1</v>
+      </c>
+      <c r="P89" t="n">
+        <v>898928.6516337626</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>17978.57303267525</v>
+      </c>
+      <c r="R89" t="n">
+        <v>0.9888215167971389</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>random_circuit</t>
+          <t>teleportation</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -4121,28 +6004,49 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>0.9712730018638178</v>
+        <v>0.9847443812523748</v>
       </c>
       <c r="G90" t="n">
         <v>1.000000000000002</v>
       </c>
       <c r="H90" t="n">
-        <v>0.9434977602164021</v>
+        <v>0.9697713296262001</v>
       </c>
       <c r="I90" t="n">
-        <v>0.05650223978359969</v>
+        <v>0.0302286703738015</v>
       </c>
       <c r="J90" t="n">
-        <v>0.003546586839851407</v>
+        <v>0.001491019007891309</v>
       </c>
       <c r="K90" t="n">
-        <v>0.006118535995483398</v>
+        <v>0.01227355003356934</v>
+      </c>
+      <c r="L90" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M90" t="n">
+        <v>909090.9090909091</v>
+      </c>
+      <c r="N90" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="O90" t="n">
+        <v>1</v>
+      </c>
+      <c r="P90" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>17904.44329549772</v>
+      </c>
+      <c r="R90" t="n">
+        <v>0.9847443812523748</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>random_circuit</t>
+          <t>teleportation</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -4162,28 +6066,49 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>0.9712730018638178</v>
+        <v>0.9847443812523748</v>
       </c>
       <c r="G91" t="n">
         <v>1.000000000000002</v>
       </c>
       <c r="H91" t="n">
-        <v>0.9434977602164021</v>
+        <v>0.9697713296262001</v>
       </c>
       <c r="I91" t="n">
-        <v>0.05650223978359969</v>
+        <v>0.0302286703738015</v>
       </c>
       <c r="J91" t="n">
-        <v>0.003546586839851407</v>
+        <v>0.001491019007891309</v>
       </c>
       <c r="K91" t="n">
-        <v>0.006906986236572266</v>
+        <v>0.01437640190124512</v>
+      </c>
+      <c r="L91" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M91" t="n">
+        <v>909090.9090909091</v>
+      </c>
+      <c r="N91" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="O91" t="n">
+        <v>1</v>
+      </c>
+      <c r="P91" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>17904.44329549772</v>
+      </c>
+      <c r="R91" t="n">
+        <v>0.9847443812523748</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>random_circuit</t>
+          <t>teleportation</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -4203,28 +6128,49 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>0.9712730018638178</v>
+        <v>0.9847443812523748</v>
       </c>
       <c r="G92" t="n">
         <v>1.000000000000002</v>
       </c>
       <c r="H92" t="n">
-        <v>0.9434977602164021</v>
+        <v>0.9697713296262001</v>
       </c>
       <c r="I92" t="n">
-        <v>0.05650223978359969</v>
+        <v>0.0302286703738015</v>
       </c>
       <c r="J92" t="n">
-        <v>0.003546586839851407</v>
+        <v>0.001491019007891309</v>
       </c>
       <c r="K92" t="n">
-        <v>0.006675958633422852</v>
+        <v>0.01374077796936035</v>
+      </c>
+      <c r="L92" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M92" t="n">
+        <v>909090.9090909091</v>
+      </c>
+      <c r="N92" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="O92" t="n">
+        <v>1</v>
+      </c>
+      <c r="P92" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>17904.44329549772</v>
+      </c>
+      <c r="R92" t="n">
+        <v>0.9847443812523748</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>random_circuit</t>
+          <t>teleportation</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -4244,28 +6190,49 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>0.9749232706070291</v>
+        <v>0.987545443963221</v>
       </c>
       <c r="G93" t="n">
         <v>1.000000000000002</v>
       </c>
       <c r="H93" t="n">
-        <v>0.9505919760286876</v>
+        <v>0.9782828158084471</v>
       </c>
       <c r="I93" t="n">
-        <v>0.04940802397131416</v>
+        <v>0.02171718419155444</v>
       </c>
       <c r="J93" t="n">
-        <v>0.001836711011377652</v>
+        <v>0.001493504012128596</v>
       </c>
       <c r="K93" t="n">
-        <v>0.007523298263549805</v>
+        <v>0.01201701164245605</v>
+      </c>
+      <c r="L93" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M93" t="n">
+        <v>909090.9090909091</v>
+      </c>
+      <c r="N93" t="n">
+        <v>897768.5854211099</v>
+      </c>
+      <c r="O93" t="n">
+        <v>1</v>
+      </c>
+      <c r="P93" t="n">
+        <v>897768.5854211099</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>17955.3717084222</v>
+      </c>
+      <c r="R93" t="n">
+        <v>0.987545443963221</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>random_circuit</t>
+          <t>teleportation</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -4285,28 +6252,49 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>0.9712730018638178</v>
+        <v>0.9847443812523748</v>
       </c>
       <c r="G94" t="n">
         <v>1.000000000000002</v>
       </c>
       <c r="H94" t="n">
-        <v>0.9434977602164021</v>
+        <v>0.9697713296262001</v>
       </c>
       <c r="I94" t="n">
-        <v>0.05650223978359969</v>
+        <v>0.0302286703738015</v>
       </c>
       <c r="J94" t="n">
-        <v>0.003546586839851407</v>
+        <v>0.001491019007891309</v>
       </c>
       <c r="K94" t="n">
-        <v>0.006104469299316406</v>
+        <v>0.01392745971679688</v>
+      </c>
+      <c r="L94" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M94" t="n">
+        <v>909090.9090909091</v>
+      </c>
+      <c r="N94" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="O94" t="n">
+        <v>1</v>
+      </c>
+      <c r="P94" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>17904.44329549772</v>
+      </c>
+      <c r="R94" t="n">
+        <v>0.9847443812523748</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>random_circuit</t>
+          <t>teleportation</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -4326,28 +6314,49 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>0.9712730018638178</v>
+        <v>0.9847443812523748</v>
       </c>
       <c r="G95" t="n">
         <v>1.000000000000002</v>
       </c>
       <c r="H95" t="n">
-        <v>0.9434977602164021</v>
+        <v>0.9697713296262001</v>
       </c>
       <c r="I95" t="n">
-        <v>0.05650223978359969</v>
+        <v>0.0302286703738015</v>
       </c>
       <c r="J95" t="n">
-        <v>0.003546586839851407</v>
+        <v>0.001491019007891309</v>
       </c>
       <c r="K95" t="n">
-        <v>0.006720542907714844</v>
+        <v>0.01134848594665527</v>
+      </c>
+      <c r="L95" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M95" t="n">
+        <v>909090.9090909091</v>
+      </c>
+      <c r="N95" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="O95" t="n">
+        <v>1</v>
+      </c>
+      <c r="P95" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>17904.44329549772</v>
+      </c>
+      <c r="R95" t="n">
+        <v>0.9847443812523748</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>random_circuit</t>
+          <t>teleportation</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -4367,28 +6376,49 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>0.9712730018638178</v>
+        <v>0.9847443812523748</v>
       </c>
       <c r="G96" t="n">
         <v>1.000000000000002</v>
       </c>
       <c r="H96" t="n">
-        <v>0.9434977602164021</v>
+        <v>0.9697713296262001</v>
       </c>
       <c r="I96" t="n">
-        <v>0.05650223978359969</v>
+        <v>0.0302286703738015</v>
       </c>
       <c r="J96" t="n">
-        <v>0.003546586839851407</v>
+        <v>0.001491019007891309</v>
       </c>
       <c r="K96" t="n">
-        <v>0.007109642028808594</v>
+        <v>0.01047420501708984</v>
+      </c>
+      <c r="L96" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M96" t="n">
+        <v>909090.9090909091</v>
+      </c>
+      <c r="N96" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="O96" t="n">
+        <v>1</v>
+      </c>
+      <c r="P96" t="n">
+        <v>895222.1647748862</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>17904.44329549772</v>
+      </c>
+      <c r="R96" t="n">
+        <v>0.9847443812523748</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>random_circuit</t>
+          <t>teleportation</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -4408,1990 +6438,43 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>0.9749232706070282</v>
+        <v>0.9829970327582932</v>
       </c>
       <c r="G97" t="n">
         <v>1.000000000000002</v>
       </c>
       <c r="H97" t="n">
-        <v>0.9505919760286878</v>
+        <v>0.9782828158084472</v>
       </c>
       <c r="I97" t="n">
-        <v>0.04940802397131394</v>
+        <v>0.02171718419155433</v>
       </c>
       <c r="J97" t="n">
-        <v>0.001836711011377638</v>
+        <v>0.00149350401212861</v>
       </c>
       <c r="K97" t="n">
-        <v>0.007834911346435547</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>all_pairs</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>pauli</t>
-        </is>
-      </c>
-      <c r="C98" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="D98" t="n">
-        <v>1</v>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>[(2, 4)]</t>
-        </is>
-      </c>
-      <c r="F98" t="n">
-        <v>0.9563936186717306</v>
-      </c>
-      <c r="G98" t="n">
-        <v>1.000000000000003</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0.9148526808373068</v>
-      </c>
-      <c r="I98" t="n">
-        <v>0.08514731916269613</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.001821710281808641</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0.003763914108276367</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>all_pairs</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>pauli</t>
-        </is>
-      </c>
-      <c r="C99" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="D99" t="n">
-        <v>2</v>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>[(2, 4), (0, 2)]</t>
-        </is>
-      </c>
-      <c r="F99" t="n">
-        <v>0.959982214188036</v>
-      </c>
-      <c r="G99" t="n">
-        <v>1.000000000000003</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0.9217042775597556</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0.0782957224402473</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.001825721943184666</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.007864475250244141</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>all_pairs</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>pauli</t>
-        </is>
-      </c>
-      <c r="C100" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="D100" t="n">
-        <v>3</v>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>[(2, 4), (0, 2), (1, 3)]</t>
-        </is>
-      </c>
-      <c r="F100" t="n">
-        <v>0.9635880200662115</v>
-      </c>
-      <c r="G100" t="n">
-        <v>1.000000000000003</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0.9286217234156325</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0.07137827658437035</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.001829732772808389</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.007841110229492188</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>all_pairs</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>pauli</t>
-        </is>
-      </c>
-      <c r="C101" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="D101" t="n">
-        <v>4</v>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>[(2, 4), (0, 2), (1, 3), (0, 1)]</t>
-        </is>
-      </c>
-      <c r="F101" t="n">
-        <v>0.9672036546578334</v>
-      </c>
-      <c r="G101" t="n">
-        <v>1.000000000000003</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0.9355767878568526</v>
-      </c>
-      <c r="I101" t="n">
-        <v>0.06442321214315028</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.001832671803921332</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.008847236633300781</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>all_pairs</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>pauli</t>
-        </is>
-      </c>
-      <c r="C102" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="D102" t="n">
-        <v>1</v>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>[(2, 4)]</t>
-        </is>
-      </c>
-      <c r="F102" t="n">
-        <v>0.9563936186717351</v>
-      </c>
-      <c r="G102" t="n">
-        <v>1.000000000000003</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0.9148526234575663</v>
-      </c>
-      <c r="I102" t="n">
-        <v>0.08514737654243654</v>
-      </c>
-      <c r="J102" t="n">
-        <v>0.001815908429195282</v>
-      </c>
-      <c r="K102" t="n">
-        <v>0.006708145141601562</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>all_pairs</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>pauli</t>
-        </is>
-      </c>
-      <c r="C103" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="D103" t="n">
-        <v>2</v>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>[(2, 4), (0, 2)]</t>
-        </is>
-      </c>
-      <c r="F103" t="n">
-        <v>0.9599822141880513</v>
-      </c>
-      <c r="G103" t="n">
-        <v>1.000000000000003</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0.9217041615708041</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0.07829583842919874</v>
-      </c>
-      <c r="J103" t="n">
-        <v>0.001814045092805283</v>
-      </c>
-      <c r="K103" t="n">
-        <v>0.007155656814575195</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>all_pairs</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>pauli</t>
-        </is>
-      </c>
-      <c r="C104" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="D104" t="n">
-        <v>3</v>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>[(2, 4), (0, 2), (1, 3)]</t>
-        </is>
-      </c>
-      <c r="F104" t="n">
-        <v>0.9635880200662341</v>
-      </c>
-      <c r="G104" t="n">
-        <v>1.000000000000003</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0.9286215492632146</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0.07137845073678828</v>
-      </c>
-      <c r="J104" t="n">
-        <v>0.001812236606021162</v>
-      </c>
-      <c r="K104" t="n">
-        <v>0.007027864456176758</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>all_pairs</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>pauli</t>
-        </is>
-      </c>
-      <c r="C105" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="D105" t="n">
-        <v>4</v>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>[(2, 4), (0, 2), (1, 3), (0, 1)]</t>
-        </is>
-      </c>
-      <c r="F105" t="n">
-        <v>0.9672036546578594</v>
-      </c>
-      <c r="G105" t="n">
-        <v>1.000000000000003</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0.9355765832039098</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0.06442341679609309</v>
-      </c>
-      <c r="J105" t="n">
-        <v>0.001812200124320793</v>
-      </c>
-      <c r="K105" t="n">
-        <v>0.007655858993530273</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>all_pairs</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>pauli</t>
-        </is>
-      </c>
-      <c r="C106" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D106" t="n">
-        <v>1</v>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>[(2, 4)]</t>
-        </is>
-      </c>
-      <c r="F106" t="n">
-        <v>0.9563936186717448</v>
-      </c>
-      <c r="G106" t="n">
-        <v>1.000000000000003</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0.9148525523823103</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0.08514744761769255</v>
-      </c>
-      <c r="J106" t="n">
-        <v>0.001808656113428595</v>
-      </c>
-      <c r="K106" t="n">
-        <v>0.006431818008422852</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>all_pairs</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>pauli</t>
-        </is>
-      </c>
-      <c r="C107" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D107" t="n">
-        <v>2</v>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>[(2, 4), (0, 2)]</t>
-        </is>
-      </c>
-      <c r="F107" t="n">
-        <v>0.9599822141880693</v>
-      </c>
-      <c r="G107" t="n">
-        <v>1.000000000000003</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0.9217040178973787</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0.07829598210262423</v>
-      </c>
-      <c r="J107" t="n">
-        <v>0.001799449029484521</v>
-      </c>
-      <c r="K107" t="n">
-        <v>0.007318019866943359</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>all_pairs</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>pauli</t>
-        </is>
-      </c>
-      <c r="C108" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D108" t="n">
-        <v>3</v>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>[(2, 4), (0, 2), (1, 3)]</t>
-        </is>
-      </c>
-      <c r="F108" t="n">
-        <v>0.9635880200662615</v>
-      </c>
-      <c r="G108" t="n">
-        <v>1.000000000000003</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0.9286213361222668</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0.07137866387773606</v>
-      </c>
-      <c r="J108" t="n">
-        <v>0.001790497923684053</v>
-      </c>
-      <c r="K108" t="n">
-        <v>0.00741887092590332</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>all_pairs</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>pauli</t>
-        </is>
-      </c>
-      <c r="C109" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D109" t="n">
-        <v>4</v>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>[(2, 4), (0, 2), (1, 3), (0, 1)]</t>
-        </is>
-      </c>
-      <c r="F109" t="n">
-        <v>0.9672036546578959</v>
-      </c>
-      <c r="G109" t="n">
-        <v>1.000000000000003</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0.9355763336140535</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0.06442366638594943</v>
-      </c>
-      <c r="J109" t="n">
-        <v>0.001786809140391246</v>
-      </c>
-      <c r="K109" t="n">
-        <v>0.009392261505126953</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>all_pairs</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>pauli</t>
-        </is>
-      </c>
-      <c r="C110" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D110" t="n">
-        <v>1</v>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>[(2, 4)]</t>
-        </is>
-      </c>
-      <c r="F110" t="n">
-        <v>0.9563936186717608</v>
-      </c>
-      <c r="G110" t="n">
-        <v>1.000000000000003</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0.9148524123965263</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0.08514758760347663</v>
-      </c>
-      <c r="J110" t="n">
-        <v>0.001794151481895215</v>
-      </c>
-      <c r="K110" t="n">
-        <v>0.006828069686889648</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>all_pairs</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>pauli</t>
-        </is>
-      </c>
-      <c r="C111" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D111" t="n">
-        <v>2</v>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>[(2, 4), (0, 2)]</t>
-        </is>
-      </c>
-      <c r="F111" t="n">
-        <v>0.9599822141881058</v>
-      </c>
-      <c r="G111" t="n">
-        <v>1.000000000000003</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0.9217037349264011</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0.07829626507360177</v>
-      </c>
-      <c r="J111" t="n">
-        <v>0.001770256901687745</v>
-      </c>
-      <c r="K111" t="n">
-        <v>0.007261276245117188</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>all_pairs</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>pauli</t>
-        </is>
-      </c>
-      <c r="C112" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D112" t="n">
-        <v>3</v>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>[(2, 4), (0, 2), (1, 3)]</t>
-        </is>
-      </c>
-      <c r="F112" t="n">
-        <v>0.9635880200663141</v>
-      </c>
-      <c r="G112" t="n">
-        <v>1.000000000000003</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0.9286209246763701</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0.07137907532363275</v>
-      </c>
-      <c r="J112" t="n">
-        <v>0.001747458979521761</v>
-      </c>
-      <c r="K112" t="n">
-        <v>0.007429838180541992</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>all_pairs</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>pauli</t>
-        </is>
-      </c>
-      <c r="C113" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D113" t="n">
-        <v>4</v>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>[(2, 4), (0, 2), (1, 3), (0, 1)]</t>
-        </is>
-      </c>
-      <c r="F113" t="n">
-        <v>0.9672036546579612</v>
-      </c>
-      <c r="G113" t="n">
-        <v>1.000000000000003</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0.9355758546894738</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0.06442414531052909</v>
-      </c>
-      <c r="J113" t="n">
-        <v>0.001736689224523715</v>
-      </c>
-      <c r="K113" t="n">
-        <v>0.007670402526855469</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>all_pairs</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>pauli</t>
-        </is>
-      </c>
-      <c r="C114" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="D114" t="n">
-        <v>1</v>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>[(2, 4)]</t>
-        </is>
-      </c>
-      <c r="F114" t="n">
-        <v>0.9563936186718094</v>
-      </c>
-      <c r="G114" t="n">
-        <v>1.000000000000003</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0.9148520097570025</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0.08514799024300035</v>
-      </c>
-      <c r="J114" t="n">
-        <v>0.00175063758729508</v>
-      </c>
-      <c r="K114" t="n">
-        <v>0.006616592407226562</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>all_pairs</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>pauli</t>
-        </is>
-      </c>
-      <c r="C115" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="D115" t="n">
-        <v>2</v>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>[(2, 4), (0, 2)]</t>
-        </is>
-      </c>
-      <c r="F115" t="n">
-        <v>0.9599822141882129</v>
-      </c>
-      <c r="G115" t="n">
-        <v>1.000000000000003</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0.9217029210204312</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0.07829707897957172</v>
-      </c>
-      <c r="J115" t="n">
-        <v>0.001682680509056256</v>
-      </c>
-      <c r="K115" t="n">
-        <v>0.007683753967285156</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>all_pairs</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>pauli</t>
-        </is>
-      </c>
-      <c r="C116" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="D116" t="n">
-        <v>3</v>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>[(2, 4), (0, 2), (1, 3)]</t>
-        </is>
-      </c>
-      <c r="F116" t="n">
-        <v>0.9635880200664654</v>
-      </c>
-      <c r="G116" t="n">
-        <v>1.000000000000003</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0.9286198029440408</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0.0713801970559621</v>
-      </c>
-      <c r="J116" t="n">
-        <v>0.001621849511546765</v>
-      </c>
-      <c r="K116" t="n">
-        <v>0.009117364883422852</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>all_pairs</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>pauli</t>
-        </is>
-      </c>
-      <c r="C117" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="D117" t="n">
-        <v>4</v>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>[(2, 4), (0, 2), (1, 3), (0, 1)]</t>
-        </is>
-      </c>
-      <c r="F117" t="n">
-        <v>0.9672036546581423</v>
-      </c>
-      <c r="G117" t="n">
-        <v>1.000000000000003</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0.9355745707330922</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0.06442542926691064</v>
-      </c>
-      <c r="J117" t="n">
-        <v>0.001591625894496049</v>
-      </c>
-      <c r="K117" t="n">
-        <v>0.009535551071166992</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>all_pairs</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>pauli</t>
-        </is>
-      </c>
-      <c r="C118" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D118" t="n">
-        <v>1</v>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>[(2, 4)]</t>
-        </is>
-      </c>
-      <c r="F118" t="n">
-        <v>0.9563936186718874</v>
-      </c>
-      <c r="G118" t="n">
-        <v>1.000000000000003</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0.9148513964172269</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0.08514860358277598</v>
-      </c>
-      <c r="J118" t="n">
-        <v>0.001678114429628185</v>
-      </c>
-      <c r="K118" t="n">
-        <v>0.006379127502441406</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>all_pairs</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>pauli</t>
-        </is>
-      </c>
-      <c r="C119" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D119" t="n">
-        <v>2</v>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>[(2, 4), (0, 2)]</t>
-        </is>
-      </c>
-      <c r="F119" t="n">
-        <v>0.9599822141883806</v>
-      </c>
-      <c r="G119" t="n">
-        <v>1.000000000000003</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0.9217016812002123</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0.07829831879979054</v>
-      </c>
-      <c r="J119" t="n">
-        <v>0.001536719823866151</v>
-      </c>
-      <c r="K119" t="n">
-        <v>0.007671356201171875</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>all_pairs</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>pauli</t>
-        </is>
-      </c>
-      <c r="C120" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D120" t="n">
-        <v>3</v>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>[(2, 4), (0, 2), (1, 3)]</t>
-        </is>
-      </c>
-      <c r="F120" t="n">
-        <v>0.9635880200666777</v>
-      </c>
-      <c r="G120" t="n">
-        <v>1.000000000000003</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0.9286182702022054</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0.07138172979779744</v>
-      </c>
-      <c r="J120" t="n">
-        <v>0.001424191616074339</v>
-      </c>
-      <c r="K120" t="n">
-        <v>0.007003068923950195</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>all_pairs</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>pauli</t>
-        </is>
-      </c>
-      <c r="C121" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D121" t="n">
-        <v>4</v>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>[(2, 4), (0, 2), (1, 3), (0, 1)]</t>
-        </is>
-      </c>
-      <c r="F121" t="n">
-        <v>0.9672036546583923</v>
-      </c>
-      <c r="G121" t="n">
-        <v>1.000000000000003</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0.9355728817562337</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0.06442711824376923</v>
-      </c>
-      <c r="J121" t="n">
-        <v>0.001367508413723816</v>
-      </c>
-      <c r="K121" t="n">
-        <v>0.005256175994873047</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>all_pairs</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>zz</t>
-        </is>
-      </c>
-      <c r="C122" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="D122" t="n">
-        <v>1</v>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>[(2, 4)]</t>
-        </is>
-      </c>
-      <c r="F122" t="n">
-        <v>0.9563930294777054</v>
-      </c>
-      <c r="G122" t="n">
-        <v>1.000000000000003</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0.914852692447236</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0.08514730755276689</v>
-      </c>
-      <c r="J122" t="n">
-        <v>0.001823160744961966</v>
-      </c>
-      <c r="K122" t="n">
-        <v>0.006756782531738281</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>all_pairs</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>zz</t>
-        </is>
-      </c>
-      <c r="C123" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="D123" t="n">
-        <v>2</v>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>[(2, 4), (0, 2)]</t>
-        </is>
-      </c>
-      <c r="F123" t="n">
-        <v>0.9599810319188076</v>
-      </c>
-      <c r="G123" t="n">
-        <v>1.000000000000003</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0.9217042868729557</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0.0782957131270472</v>
-      </c>
-      <c r="J123" t="n">
-        <v>0.001828641155741035</v>
-      </c>
-      <c r="K123" t="n">
-        <v>0.007179975509643555</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>all_pairs</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>zz</t>
-        </is>
-      </c>
-      <c r="C124" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="D124" t="n">
-        <v>3</v>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>[(2, 4), (0, 2), (1, 3)]</t>
-        </is>
-      </c>
-      <c r="F124" t="n">
-        <v>0.9635862397282415</v>
-      </c>
-      <c r="G124" t="n">
-        <v>1.000000000000003</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0.9286217417677671</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0.07137825823223576</v>
-      </c>
-      <c r="J124" t="n">
-        <v>0.001834121428521164</v>
-      </c>
-      <c r="K124" t="n">
-        <v>0.007421731948852539</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>all_pairs</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>zz</t>
-        </is>
-      </c>
-      <c r="C125" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="D125" t="n">
-        <v>4</v>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>[(2, 4), (0, 2), (1, 3), (0, 1)]</t>
-        </is>
-      </c>
-      <c r="F125" t="n">
-        <v>0.9672012711323179</v>
-      </c>
-      <c r="G125" t="n">
-        <v>1.000000000000003</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0.9355768023467066</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0.06442319765329629</v>
-      </c>
-      <c r="J125" t="n">
-        <v>0.001837811792216704</v>
-      </c>
-      <c r="K125" t="n">
-        <v>0.01255536079406738</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>all_pairs</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>zz</t>
-        </is>
-      </c>
-      <c r="C126" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="D126" t="n">
-        <v>1</v>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>[(2, 4)]</t>
-        </is>
-      </c>
-      <c r="F126" t="n">
-        <v>0.956378888893866</v>
-      </c>
-      <c r="G126" t="n">
-        <v>1.000000000000003</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0.9148526250767081</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0.08514737492329483</v>
-      </c>
-      <c r="J126" t="n">
-        <v>0.001823160744961938</v>
-      </c>
-      <c r="K126" t="n">
-        <v>0.006605386734008789</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>all_pairs</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>zz</t>
-        </is>
-      </c>
-      <c r="C127" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="D127" t="n">
-        <v>2</v>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>[(2, 4), (0, 2)]</t>
-        </is>
-      </c>
-      <c r="F127" t="n">
-        <v>0.9599526578217027</v>
-      </c>
-      <c r="G127" t="n">
-        <v>1.000000000000003</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0.9217038109651428</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0.07829618903486013</v>
-      </c>
-      <c r="J127" t="n">
-        <v>0.001828641155740987</v>
-      </c>
-      <c r="K127" t="n">
-        <v>0.007230043411254883</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>all_pairs</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>zz</t>
-        </is>
-      </c>
-      <c r="C128" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="D128" t="n">
-        <v>3</v>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>[(2, 4), (0, 2), (1, 3)]</t>
-        </is>
-      </c>
-      <c r="F128" t="n">
-        <v>0.9635435124946437</v>
-      </c>
-      <c r="G128" t="n">
-        <v>1.000000000000003</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0.9286211250533826</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0.07137887494662032</v>
-      </c>
-      <c r="J128" t="n">
-        <v>0.001834121428521095</v>
-      </c>
-      <c r="K128" t="n">
-        <v>0.006980419158935547</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>all_pairs</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>zz</t>
-        </is>
-      </c>
-      <c r="C129" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="D129" t="n">
-        <v>4</v>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>[(2, 4), (0, 2), (1, 3), (0, 1)]</t>
-        </is>
-      </c>
-      <c r="F129" t="n">
-        <v>0.9671440681371046</v>
-      </c>
-      <c r="G129" t="n">
-        <v>1.000000000000003</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0.9355759054178119</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0.064424094582191</v>
-      </c>
-      <c r="J129" t="n">
-        <v>0.001837811792216627</v>
-      </c>
-      <c r="K129" t="n">
-        <v>0.007764816284179688</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>all_pairs</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>zz</t>
-        </is>
-      </c>
-      <c r="C130" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D130" t="n">
-        <v>1</v>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>[(2, 4)]</t>
-        </is>
-      </c>
-      <c r="F130" t="n">
-        <v>0.9563347004688851</v>
-      </c>
-      <c r="G130" t="n">
-        <v>1.000000000000003</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0.9148524145609505</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0.08514758543905243</v>
-      </c>
-      <c r="J130" t="n">
-        <v>0.001823160744961938</v>
-      </c>
-      <c r="K130" t="n">
-        <v>0.006471157073974609</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>all_pairs</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>zz</t>
-        </is>
-      </c>
-      <c r="C131" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D131" t="n">
-        <v>2</v>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>[(2, 4), (0, 2)]</t>
-        </is>
-      </c>
-      <c r="F131" t="n">
-        <v>0.9598639932758529</v>
-      </c>
-      <c r="G131" t="n">
-        <v>1.000000000000003</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0.9217023238743214</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0.0782976761256815</v>
-      </c>
-      <c r="J131" t="n">
-        <v>0.001828641155740987</v>
-      </c>
-      <c r="K131" t="n">
-        <v>0.004256486892700195</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>all_pairs</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>zz</t>
-        </is>
-      </c>
-      <c r="C132" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D132" t="n">
-        <v>3</v>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>[(2, 4), (0, 2), (1, 3)]</t>
-        </is>
-      </c>
-      <c r="F132" t="n">
-        <v>0.9634100007483659</v>
-      </c>
-      <c r="G132" t="n">
-        <v>1.000000000000003</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0.9286191980821732</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0.07138080191782969</v>
-      </c>
-      <c r="J132" t="n">
-        <v>0.001834121428521095</v>
-      </c>
-      <c r="K132" t="n">
-        <v>0.007153034210205078</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>all_pairs</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>zz</t>
-        </is>
-      </c>
-      <c r="C133" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="D133" t="n">
-        <v>4</v>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>[(2, 4), (0, 2), (1, 3), (0, 1)]</t>
-        </is>
-      </c>
-      <c r="F133" t="n">
-        <v>0.9669653287856708</v>
-      </c>
-      <c r="G133" t="n">
-        <v>1.000000000000003</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0.9355731031103816</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0.06442689688962133</v>
-      </c>
-      <c r="J133" t="n">
-        <v>0.001837811792216627</v>
-      </c>
-      <c r="K133" t="n">
-        <v>0.009309530258178711</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>all_pairs</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>zz</t>
-        </is>
-      </c>
-      <c r="C134" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D134" t="n">
-        <v>1</v>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>[(2, 4)]</t>
-        </is>
-      </c>
-      <c r="F134" t="n">
-        <v>0.9561579603975304</v>
-      </c>
-      <c r="G134" t="n">
-        <v>1.000000000000003</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0.9148515727576157</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0.08514842724238714</v>
-      </c>
-      <c r="J134" t="n">
-        <v>0.001823160744961966</v>
-      </c>
-      <c r="K134" t="n">
-        <v>0.006562709808349609</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>all_pairs</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>zz</t>
-        </is>
-      </c>
-      <c r="C135" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D135" t="n">
-        <v>2</v>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>[(2, 4), (0, 2)]</t>
-        </is>
-      </c>
-      <c r="F135" t="n">
-        <v>0.9595094033818574</v>
-      </c>
-      <c r="G135" t="n">
-        <v>1.000000000000003</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0.9216963773455344</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0.07830362265446844</v>
-      </c>
-      <c r="J135" t="n">
-        <v>0.001828641155741035</v>
-      </c>
-      <c r="K135" t="n">
-        <v>0.007465839385986328</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>all_pairs</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>zz</t>
-        </is>
-      </c>
-      <c r="C136" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D136" t="n">
-        <v>3</v>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>[(2, 4), (0, 2), (1, 3)]</t>
-        </is>
-      </c>
-      <c r="F136" t="n">
-        <v>0.9628761182575529</v>
-      </c>
-      <c r="G136" t="n">
-        <v>1.000000000000003</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0.9286114941541722</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0.07138850584583067</v>
-      </c>
-      <c r="J136" t="n">
-        <v>0.001834121428521164</v>
-      </c>
-      <c r="K136" t="n">
-        <v>0.007103204727172852</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>all_pairs</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>zz</t>
-        </is>
-      </c>
-      <c r="C137" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="D137" t="n">
-        <v>4</v>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>[(2, 4), (0, 2), (1, 3), (0, 1)]</t>
-        </is>
-      </c>
-      <c r="F137" t="n">
-        <v>0.9662506744574184</v>
-      </c>
-      <c r="G137" t="n">
-        <v>1.000000000000003</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0.9355619028964237</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0.06443809710357917</v>
-      </c>
-      <c r="J137" t="n">
-        <v>0.001837811792216704</v>
-      </c>
-      <c r="K137" t="n">
-        <v>0.007771015167236328</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>all_pairs</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>zz</t>
-        </is>
-      </c>
-      <c r="C138" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="D138" t="n">
-        <v>1</v>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>[(2, 4)]</t>
-        </is>
-      </c>
-      <c r="F138" t="n">
-        <v>0.9549213903338279</v>
-      </c>
-      <c r="G138" t="n">
-        <v>1.000000000000003</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0.9148456917591485</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0.08515430824085435</v>
-      </c>
-      <c r="J138" t="n">
-        <v>0.001823160744961938</v>
-      </c>
-      <c r="K138" t="n">
-        <v>0.006794452667236328</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>all_pairs</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>zz</t>
-        </is>
-      </c>
-      <c r="C139" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="D139" t="n">
-        <v>2</v>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>[(2, 4), (0, 2)]</t>
-        </is>
-      </c>
-      <c r="F139" t="n">
-        <v>0.9570303313738195</v>
-      </c>
-      <c r="G139" t="n">
-        <v>1.000000000000003</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0.9216548337625687</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0.07834516623743415</v>
-      </c>
-      <c r="J139" t="n">
-        <v>0.001828641155740987</v>
-      </c>
-      <c r="K139" t="n">
-        <v>0.007140874862670898</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>all_pairs</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>zz</t>
-        </is>
-      </c>
-      <c r="C140" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="D140" t="n">
-        <v>3</v>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>[(2, 4), (0, 2), (1, 3)]</t>
-        </is>
-      </c>
-      <c r="F140" t="n">
-        <v>0.95914630136709</v>
-      </c>
-      <c r="G140" t="n">
-        <v>1.000000000000003</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0.9285577435499741</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0.07144225645002877</v>
-      </c>
-      <c r="J140" t="n">
-        <v>0.001834121428521095</v>
-      </c>
-      <c r="K140" t="n">
-        <v>0.007023096084594727</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>all_pairs</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>zz</t>
-        </is>
-      </c>
-      <c r="C141" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="D141" t="n">
-        <v>4</v>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>[(2, 4), (0, 2), (1, 3), (0, 1)]</t>
-        </is>
-      </c>
-      <c r="F141" t="n">
-        <v>0.9612616489356055</v>
-      </c>
-      <c r="G141" t="n">
-        <v>1.000000000000003</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0.9354839039521033</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0.06451609604789954</v>
-      </c>
-      <c r="J141" t="n">
-        <v>0.001837811792216627</v>
-      </c>
-      <c r="K141" t="n">
-        <v>0.009747982025146484</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>all_pairs</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>zz</t>
-        </is>
-      </c>
-      <c r="C142" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D142" t="n">
-        <v>1</v>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>[(2, 4)]</t>
-        </is>
-      </c>
-      <c r="F142" t="n">
-        <v>0.950513782092763</v>
-      </c>
-      <c r="G142" t="n">
-        <v>1.000000000000003</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0.9148248537226934</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0.08517514627730949</v>
-      </c>
-      <c r="J142" t="n">
-        <v>0.001823160744961966</v>
-      </c>
-      <c r="K142" t="n">
-        <v>0.006666183471679688</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>all_pairs</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>zz</t>
-        </is>
-      </c>
-      <c r="C143" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D143" t="n">
-        <v>2</v>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>[(2, 4), (0, 2)]</t>
-        </is>
-      </c>
-      <c r="F143" t="n">
-        <v>0.9482200570915189</v>
-      </c>
-      <c r="G143" t="n">
-        <v>1.000000000000003</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0.9215076331296905</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0.07849236687031236</v>
-      </c>
-      <c r="J143" t="n">
-        <v>0.001828641155741035</v>
-      </c>
-      <c r="K143" t="n">
-        <v>0.007282257080078125</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>all_pairs</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>zz</t>
-        </is>
-      </c>
-      <c r="C144" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D144" t="n">
-        <v>3</v>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>[(2, 4), (0, 2), (1, 3)]</t>
-        </is>
-      </c>
-      <c r="F144" t="n">
-        <v>0.9459301761624855</v>
-      </c>
-      <c r="G144" t="n">
-        <v>1.000000000000003</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0.9283682828686411</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0.07163171713136174</v>
-      </c>
-      <c r="J144" t="n">
-        <v>0.001834121428521164</v>
-      </c>
-      <c r="K144" t="n">
-        <v>0.006915569305419922</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>all_pairs</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>zz</t>
-        </is>
-      </c>
-      <c r="C145" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D145" t="n">
-        <v>4</v>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>[(2, 4), (0, 2), (1, 3), (0, 1)]</t>
-        </is>
-      </c>
-      <c r="F145" t="n">
-        <v>0.9436360266930378</v>
-      </c>
-      <c r="G145" t="n">
-        <v>1.000000000000003</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0.9352110104931202</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0.06478898950688272</v>
-      </c>
-      <c r="J145" t="n">
-        <v>0.001837811792216704</v>
-      </c>
-      <c r="K145" t="n">
-        <v>0.007568597793579102</v>
+        <v>0.01240324974060059</v>
+      </c>
+      <c r="L97" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M97" t="n">
+        <v>909090.9090909091</v>
+      </c>
+      <c r="N97" t="n">
+        <v>893633.6661439029</v>
+      </c>
+      <c r="O97" t="n">
+        <v>1</v>
+      </c>
+      <c r="P97" t="n">
+        <v>893633.6661439029</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>17872.67332287806</v>
+      </c>
+      <c r="R97" t="n">
+        <v>0.9829970327582932</v>
       </c>
     </row>
   </sheetData>
